--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB74A86-F215-4893-9D7D-FA549363F720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFF8098-038F-4933-9D47-EB2D5BDC339D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1134">
   <si>
     <t># Name</t>
   </si>
@@ -3408,6 +3408,36 @@
   </si>
   <si>
     <t>F,&amp;=A/X,&amp;=Y,G=3</t>
+  </si>
+  <si>
+    <t>A=3,I=1,&amp;=H,&amp;=Y,J=1,&amp;=I,&amp;=B</t>
+  </si>
+  <si>
+    <t>A=3,N=1,&amp;R=1,&amp;=B</t>
+  </si>
+  <si>
+    <t>A=2,N=2,&amp;B=2</t>
+  </si>
+  <si>
+    <t>A=2,B=2,&amp;=T,%=S</t>
+  </si>
+  <si>
+    <t>C=1,R=1,&amp;=B</t>
+  </si>
+  <si>
+    <t>D=2,R=1&amp;=B</t>
+  </si>
+  <si>
+    <t>D=2,K=1,&amp;=H,&amp;=Y</t>
+  </si>
+  <si>
+    <t>Z,&amp;=C,&amp;=Y,D=2,E=1,&amp;=O</t>
+  </si>
+  <si>
+    <t>D=3,P,&amp;=A,&amp;=H</t>
+  </si>
+  <si>
+    <t>A=2/Z,&amp;=Y</t>
   </si>
 </sst>
 </file>
@@ -3838,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="E378" sqref="E378"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3848,7 +3878,9 @@
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="7" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.5703125" customWidth="1"/>
+    <col min="6" max="6" width="115.7109375" customWidth="1"/>
+    <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -4001,7 +4033,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>1124</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -4039,7 +4071,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>1125</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
@@ -4077,7 +4109,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>1126</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -4153,7 +4185,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>1127</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -4419,7 +4451,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>1128</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
@@ -4495,7 +4527,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>1131</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
@@ -4608,9 +4640,7 @@
       <c r="C21">
         <v>7</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
@@ -4761,7 +4791,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
+        <v>1129</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -4951,7 +4981,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>48</v>
+        <v>1130</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>
@@ -5617,7 +5647,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>48</v>
+        <v>1132</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -5780,7 +5810,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>48</v>
+        <v>1133</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>48</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFF8098-038F-4933-9D47-EB2D5BDC339D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CAC55D-E7D4-4F51-9A34-3C5565454703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="1140">
   <si>
     <t># Name</t>
   </si>
@@ -3438,6 +3438,24 @@
   </si>
   <si>
     <t>A=2/Z,&amp;=Y</t>
+  </si>
+  <si>
+    <t>A=2,Q=1,&amp;=H,&amp;=Y,B=1,&amp;=I</t>
+  </si>
+  <si>
+    <t>A=2,B=1,&amp;=N</t>
+  </si>
+  <si>
+    <t>F,&amp;=A/X,&amp;=Y,L=3,&amp;=Y</t>
+  </si>
+  <si>
+    <t>D=5,X,&amp;=H,&amp;=Y,G=4,&amp;=I</t>
+  </si>
+  <si>
+    <t>D=4/D=2,K=1,&amp;=H,&amp;=B</t>
+  </si>
+  <si>
+    <t>A=2/K=1</t>
   </si>
 </sst>
 </file>
@@ -3868,8 +3886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5848,7 +5866,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>48</v>
+        <v>1134</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>48</v>
@@ -5885,9 +5903,7 @@
       <c r="C55">
         <v>5</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
         <v>48</v>
       </c>
@@ -5962,7 +5978,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>48</v>
+        <v>1135</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>48</v>
@@ -6190,7 +6206,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>48</v>
+        <v>1136</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>48</v>
@@ -6342,7 +6358,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>48</v>
+        <v>1137</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>48</v>
@@ -6418,7 +6434,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>48</v>
+        <v>1138</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -6827,7 +6843,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>48</v>
+        <v>1139</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>48</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CAC55D-E7D4-4F51-9A34-3C5565454703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5711A60-A500-4130-8E22-31BAA1E11128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="1141">
   <si>
     <t># Name</t>
   </si>
@@ -3380,82 +3380,85 @@
     <t>;N=Fountain of Souls</t>
   </si>
   <si>
-    <t>D=1/P,&amp;=4,&amp;=L,&amp;=Y,&amp;=W,&amp;=C</t>
-  </si>
-  <si>
-    <t>D=1/P,&amp;=Y,&amp;=W,&amp;=C</t>
-  </si>
-  <si>
     <t>A=1/C=1</t>
   </si>
   <si>
-    <t>A=1/P,&amp;=A</t>
-  </si>
-  <si>
-    <t>D=1/F,&amp;=A,&amp;=C</t>
-  </si>
-  <si>
-    <t>A=1/L=1,&amp;=A</t>
-  </si>
-  <si>
-    <t>A=1,H,&amp;=H,&amp;=Y,&amp;=4,&amp;=L</t>
-  </si>
-  <si>
     <t>Gain 1$. You may cast any player's prepped spell. That spell deals 1 less damage, minimum 1.</t>
   </si>
   <si>
     <t>The next time you focus or open a breach this turn, it costs 3$ less.#OR#Destroy this. Deal 1 damage.</t>
   </si>
   <si>
-    <t>F,&amp;=A/X,&amp;=Y,G=3</t>
-  </si>
-  <si>
-    <t>A=3,I=1,&amp;=H,&amp;=Y,J=1,&amp;=I,&amp;=B</t>
-  </si>
-  <si>
-    <t>A=3,N=1,&amp;R=1,&amp;=B</t>
-  </si>
-  <si>
     <t>A=2,N=2,&amp;B=2</t>
   </si>
   <si>
     <t>A=2,B=2,&amp;=T,%=S</t>
   </si>
   <si>
-    <t>C=1,R=1,&amp;=B</t>
-  </si>
-  <si>
-    <t>D=2,R=1&amp;=B</t>
-  </si>
-  <si>
-    <t>D=2,K=1,&amp;=H,&amp;=Y</t>
-  </si>
-  <si>
-    <t>Z,&amp;=C,&amp;=Y,D=2,E=1,&amp;=O</t>
-  </si>
-  <si>
-    <t>D=3,P,&amp;=A,&amp;=H</t>
-  </si>
-  <si>
-    <t>A=2/Z,&amp;=Y</t>
-  </si>
-  <si>
-    <t>A=2,Q=1,&amp;=H,&amp;=Y,B=1,&amp;=I</t>
-  </si>
-  <si>
     <t>A=2,B=1,&amp;=N</t>
   </si>
   <si>
-    <t>F,&amp;=A/X,&amp;=Y,L=3,&amp;=Y</t>
-  </si>
-  <si>
-    <t>D=5,X,&amp;=H,&amp;=Y,G=4,&amp;=I</t>
-  </si>
-  <si>
-    <t>D=4/D=2,K=1,&amp;=H,&amp;=B</t>
-  </si>
-  <si>
     <t>A=2/K=1</t>
+  </si>
+  <si>
+    <t>A=3,I=1,&amp;=H,$=Y,J=1,$=B,&amp;=I,$=Y</t>
+  </si>
+  <si>
+    <t>D=3,P,$=A,&amp;=H</t>
+  </si>
+  <si>
+    <t>A=1/L=1,$=A</t>
+  </si>
+  <si>
+    <t>A=1/P,$=A</t>
+  </si>
+  <si>
+    <t>D=1/F,$=A,&amp;=C</t>
+  </si>
+  <si>
+    <t>A=3,N=1,&amp;R=1,$=B</t>
+  </si>
+  <si>
+    <t>C=1,R=1,$=B</t>
+  </si>
+  <si>
+    <t>D=2,R=1$=B</t>
+  </si>
+  <si>
+    <t>D=4/D=2,K=1,&amp;=H,$=B</t>
+  </si>
+  <si>
+    <t>F,$=A/X,$=Y,G=3</t>
+  </si>
+  <si>
+    <t>Z=0,&amp;=C,$=Y,D=2,E=1,&amp;=O</t>
+  </si>
+  <si>
+    <t>D=2,K=1,&amp;=H,$=Y</t>
+  </si>
+  <si>
+    <t>A=2/Z=0,$=Y</t>
+  </si>
+  <si>
+    <t>A=2,Q=1,&amp;=H,$=Y,B=1,&amp;=I,$=Y</t>
+  </si>
+  <si>
+    <t>F,$=A/X,$=Y,L=3,$=Y</t>
+  </si>
+  <si>
+    <t>D=5,X,&amp;=H,$=Y,G=4,&amp;=I,$=Y</t>
+  </si>
+  <si>
+    <t>D=3,I=1,&amp;=H,$=Y,Z=1,&amp;=I,$=Y</t>
+  </si>
+  <si>
+    <t>D=1/P,$=Y,&amp;=W,&amp;=C</t>
+  </si>
+  <si>
+    <t>D=1/P,&amp;=4,&amp;=L,$=Y,&amp;=W,&amp;=C</t>
+  </si>
+  <si>
+    <t>A=1,H,&amp;=H,$=Y,&amp;=4,&amp;=L</t>
   </si>
 </sst>
 </file>
@@ -3886,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4051,7 +4054,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -4089,7 +4092,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
@@ -4127,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -4203,7 +4206,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -4399,7 +4402,7 @@
         <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>44</v>
@@ -4431,7 +4434,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1123</v>
+        <v>1130</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
@@ -4469,7 +4472,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
@@ -4809,7 +4812,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -4999,7 +5002,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>
@@ -5665,7 +5668,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -5978,7 +5981,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>48</v>
@@ -6206,7 +6209,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>48</v>
@@ -6358,7 +6361,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>48</v>
@@ -6434,7 +6437,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -6586,7 +6589,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>48</v>
+        <v>1137</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>48</v>
@@ -6843,7 +6846,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1139</v>
+        <v>1120</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>48</v>
@@ -15714,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1115</v>
+        <v>1138</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>48</v>
@@ -17598,7 +17601,7 @@
         <v>0</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>48</v>
@@ -17712,7 +17715,7 @@
         <v>0</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1114</v>
+        <v>1139</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>48</v>
@@ -17902,7 +17905,7 @@
         <v>0</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>48</v>
@@ -18130,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>48</v>
@@ -18320,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>48</v>
@@ -18434,7 +18437,7 @@
         <v>0</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>48</v>
@@ -18706,7 +18709,7 @@
         <v>48</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="G405" s="1" t="s">
         <v>48</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5711A60-A500-4130-8E22-31BAA1E11128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074346DE-D6D0-468A-85A6-CAF05D8D1C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4073" uniqueCount="1147">
   <si>
     <t># Name</t>
   </si>
@@ -3398,12 +3398,6 @@
     <t>A=2,B=1,&amp;=N</t>
   </si>
   <si>
-    <t>A=2/K=1</t>
-  </si>
-  <si>
-    <t>A=3,I=1,&amp;=H,$=Y,J=1,$=B,&amp;=I,$=Y</t>
-  </si>
-  <si>
     <t>D=3,P,$=A,&amp;=H</t>
   </si>
   <si>
@@ -3425,40 +3419,64 @@
     <t>D=2,R=1$=B</t>
   </si>
   <si>
-    <t>D=4/D=2,K=1,&amp;=H,$=B</t>
-  </si>
-  <si>
-    <t>F,$=A/X,$=Y,G=3</t>
-  </si>
-  <si>
-    <t>Z=0,&amp;=C,$=Y,D=2,E=1,&amp;=O</t>
-  </si>
-  <si>
-    <t>D=2,K=1,&amp;=H,$=Y</t>
-  </si>
-  <si>
-    <t>A=2/Z=0,$=Y</t>
-  </si>
-  <si>
-    <t>A=2,Q=1,&amp;=H,$=Y,B=1,&amp;=I,$=Y</t>
-  </si>
-  <si>
-    <t>F,$=A/X,$=Y,L=3,$=Y</t>
-  </si>
-  <si>
-    <t>D=5,X,&amp;=H,$=Y,G=4,&amp;=I,$=Y</t>
-  </si>
-  <si>
-    <t>D=3,I=1,&amp;=H,$=Y,Z=1,&amp;=I,$=Y</t>
-  </si>
-  <si>
-    <t>D=1/P,$=Y,&amp;=W,&amp;=C</t>
-  </si>
-  <si>
-    <t>D=1/P,&amp;=4,&amp;=L,$=Y,&amp;=W,&amp;=C</t>
-  </si>
-  <si>
-    <t>A=1,H,&amp;=H,$=Y,&amp;=4,&amp;=L</t>
+    <t>D=2,A=1;L</t>
+  </si>
+  <si>
+    <t>F,$=A/X,$=C,G=3</t>
+  </si>
+  <si>
+    <t>F=0,&amp;=C,$=C,D=2,E=1,&amp;=O</t>
+  </si>
+  <si>
+    <t>A=2/F=0,$=C</t>
+  </si>
+  <si>
+    <t>A=2,Q=1,&amp;=H,$=C,B=1,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>F,$=A/X,$=C,L=3,$=C</t>
+  </si>
+  <si>
+    <t>D=5,X,&amp;=H,$=C,G=4,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>D=4,M=1,&amp;=H,$=C;D</t>
+  </si>
+  <si>
+    <t>D=1/P,$=C,&amp;=W,&amp;=C</t>
+  </si>
+  <si>
+    <t>D=1/P,&amp;=4,&amp;=L,$=C,&amp;=W,&amp;=C</t>
+  </si>
+  <si>
+    <t>A=1,H,&amp;=H,$=C,&amp;=4,&amp;=L</t>
+  </si>
+  <si>
+    <t>A=3,I=1,&amp;=H,$=C,$=E,J=1,$=B,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>D=3,I=1,&amp;=H,$=C,$=E,Z=0,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>D=2,K=1,&amp;=H,$=C,$=E</t>
+  </si>
+  <si>
+    <t>D=4/D=2,K=1,&amp;=H,$=B,$=E</t>
+  </si>
+  <si>
+    <t>A=2/K=1,$=E</t>
+  </si>
+  <si>
+    <t>D=1,E=1,&amp;=N;L</t>
+  </si>
+  <si>
+    <t>A=2/I=1,$=E,C=2,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>A=3/A=2,D=1</t>
+  </si>
+  <si>
+    <t>C=1/C=-2,&amp;=H,$=C,A=5,&amp;=I,$=C</t>
   </si>
 </sst>
 </file>
@@ -3889,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4054,7 +4072,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1121</v>
+        <v>1138</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -4092,7 +4110,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
@@ -4434,7 +4452,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
@@ -4472,7 +4490,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
@@ -4548,7 +4566,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
@@ -4812,7 +4830,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -5002,7 +5020,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>
@@ -5668,7 +5686,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -5831,7 +5849,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>48</v>
@@ -5869,7 +5887,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>48</v>
@@ -6209,7 +6227,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>48</v>
@@ -6361,7 +6379,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>48</v>
@@ -6437,7 +6455,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1129</v>
+        <v>1141</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -6589,7 +6607,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>48</v>
@@ -6703,7 +6721,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>48</v>
+        <v>1134</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>143</v>
@@ -6846,7 +6864,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1120</v>
+        <v>1142</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>48</v>
@@ -6998,7 +7016,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>48</v>
+        <v>1127</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>246</v>
@@ -7074,7 +7092,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>48</v>
+        <v>1143</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>246</v>
@@ -7217,7 +7235,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>48</v>
+        <v>1144</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>48</v>
@@ -7255,7 +7273,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>48</v>
+        <v>1145</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>48</v>
@@ -7331,7 +7349,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>48</v>
+        <v>1146</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>48</v>
@@ -15717,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>48</v>
@@ -17601,7 +17619,7 @@
         <v>0</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>48</v>
@@ -17715,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>48</v>
@@ -17905,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>48</v>
@@ -18133,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>48</v>
@@ -18323,7 +18341,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>48</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074346DE-D6D0-468A-85A6-CAF05D8D1C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB92F57-BDE4-4E5E-88B8-3D23E541376A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4073" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="1147">
   <si>
     <t># Name</t>
   </si>
@@ -3389,15 +3389,6 @@
     <t>The next time you focus or open a breach this turn, it costs 3$ less.#OR#Destroy this. Deal 1 damage.</t>
   </si>
   <si>
-    <t>A=2,N=2,&amp;B=2</t>
-  </si>
-  <si>
-    <t>A=2,B=2,&amp;=T,%=S</t>
-  </si>
-  <si>
-    <t>A=2,B=1,&amp;=N</t>
-  </si>
-  <si>
     <t>D=3,P,$=A,&amp;=H</t>
   </si>
   <si>
@@ -3425,15 +3416,9 @@
     <t>F,$=A/X,$=C,G=3</t>
   </si>
   <si>
-    <t>F=0,&amp;=C,$=C,D=2,E=1,&amp;=O</t>
-  </si>
-  <si>
     <t>A=2/F=0,$=C</t>
   </si>
   <si>
-    <t>A=2,Q=1,&amp;=H,$=C,B=1,&amp;=I,$=C</t>
-  </si>
-  <si>
     <t>F,$=A/X,$=C,L=3,$=C</t>
   </si>
   <si>
@@ -3467,9 +3452,6 @@
     <t>A=2/K=1,$=E</t>
   </si>
   <si>
-    <t>D=1,E=1,&amp;=N;L</t>
-  </si>
-  <si>
     <t>A=2/I=1,$=E,C=2,&amp;=I,$=C</t>
   </si>
   <si>
@@ -3477,6 +3459,24 @@
   </si>
   <si>
     <t>C=1/C=-2,&amp;=H,$=C,A=5,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>A=2,N=2,&amp;A=+2</t>
+  </si>
+  <si>
+    <t>A=2,A=+2,&amp;=T,%=S</t>
+  </si>
+  <si>
+    <t>A=2,Q=1,&amp;=H,$=C,A=+1,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>A=2,A=+1,&amp;=N</t>
+  </si>
+  <si>
+    <t>F=0,&amp;=C,$=C,D=2,D=+1,&amp;=O</t>
+  </si>
+  <si>
+    <t>D=1,D=+1,&amp;=N;L</t>
   </si>
 </sst>
 </file>
@@ -3907,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4072,7 +4072,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -4110,7 +4110,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
@@ -4148,7 +4148,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1117</v>
+        <v>1141</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -4224,7 +4224,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1118</v>
+        <v>1142</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -4452,7 +4452,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
@@ -4490,7 +4490,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
@@ -4566,7 +4566,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1129</v>
+        <v>1145</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
@@ -4830,7 +4830,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -5020,7 +5020,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>
@@ -5686,7 +5686,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -5849,7 +5849,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>48</v>
@@ -5887,7 +5887,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1131</v>
+        <v>1143</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>48</v>
@@ -5999,7 +5999,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1119</v>
+        <v>1144</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>48</v>
@@ -6227,7 +6227,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>48</v>
@@ -6379,7 +6379,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>48</v>
@@ -6455,7 +6455,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -6607,7 +6607,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>48</v>
@@ -6721,7 +6721,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>143</v>
@@ -6864,7 +6864,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>48</v>
@@ -7016,7 +7016,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>246</v>
@@ -7092,7 +7092,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>246</v>
@@ -7235,7 +7235,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>48</v>
@@ -7273,7 +7273,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>48</v>
@@ -7349,7 +7349,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>48</v>
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>48</v>
@@ -17619,7 +17619,7 @@
         <v>0</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>48</v>
@@ -17733,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>48</v>
@@ -17923,7 +17923,7 @@
         <v>0</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>48</v>
@@ -18151,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>48</v>
@@ -18341,7 +18341,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>48</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB92F57-BDE4-4E5E-88B8-3D23E541376A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDCF3E2-EC3E-48EA-B446-74FCA8C9B7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="1151">
   <si>
     <t># Name</t>
   </si>
@@ -968,9 +968,6 @@
     <t>Warping Haze</t>
   </si>
   <si>
-    <t>Cast: Deal 2 damage. If you have two or more other prepped spells, deal 1 additiona damage.</t>
-  </si>
-  <si>
     <t>The haze feeds on your energy, warping reality and growing in power.</t>
   </si>
   <si>
@@ -3449,12 +3446,6 @@
     <t>D=4/D=2,K=1,&amp;=H,$=B,$=E</t>
   </si>
   <si>
-    <t>A=2/K=1,$=E</t>
-  </si>
-  <si>
-    <t>A=2/I=1,$=E,C=2,&amp;=I,$=C</t>
-  </si>
-  <si>
     <t>A=3/A=2,D=1</t>
   </si>
   <si>
@@ -3477,6 +3468,27 @@
   </si>
   <si>
     <t>D=1,D=+1,&amp;=N;L</t>
+  </si>
+  <si>
+    <t>D=2,D=+5,&amp;=0-2,$=C</t>
+  </si>
+  <si>
+    <t>D=3,D=+3,&amp;=+4</t>
+  </si>
+  <si>
+    <t>J=2,$=B</t>
+  </si>
+  <si>
+    <t>Cast: Deal 2 damage. If you have two or more other prepped spells, deal 1 additional damage.</t>
+  </si>
+  <si>
+    <t>A=2/I=1,$=C,$=E,C=2,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>A=2/K=1,$=C,$=E</t>
+  </si>
+  <si>
+    <t>C=1,K=1,&amp;=H,$=C,$=G</t>
   </si>
 </sst>
 </file>
@@ -3907,8 +3919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4072,7 +4084,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -4110,7 +4122,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
@@ -4148,7 +4160,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -4186,7 +4198,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>48</v>
@@ -4224,7 +4236,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -4420,7 +4432,7 @@
         <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>44</v>
@@ -4452,7 +4464,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
@@ -4490,7 +4502,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
@@ -4566,7 +4578,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
@@ -4830,7 +4842,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -5020,7 +5032,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>
@@ -5163,7 +5175,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>1150</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>48</v>
@@ -5276,9 +5288,7 @@
       <c r="C37">
         <v>8</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -5686,7 +5696,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -5849,7 +5859,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>48</v>
@@ -5887,7 +5897,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>48</v>
@@ -5999,7 +6009,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>48</v>
@@ -6227,7 +6237,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>48</v>
@@ -6379,7 +6389,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>48</v>
@@ -6455,7 +6465,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -6607,7 +6617,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>48</v>
@@ -6721,7 +6731,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>143</v>
@@ -6864,7 +6874,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1137</v>
+        <v>1149</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>48</v>
@@ -7016,7 +7026,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>246</v>
@@ -7092,7 +7102,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>246</v>
@@ -7235,7 +7245,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>48</v>
@@ -7273,7 +7283,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>48</v>
@@ -7349,7 +7359,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>48</v>
@@ -7425,7 +7435,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>48</v>
+        <v>1144</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>48</v>
@@ -7463,7 +7473,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>48</v>
+        <v>1145</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>48</v>
@@ -7702,7 +7712,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>48</v>
@@ -7778,7 +7788,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>48</v>
@@ -7854,7 +7864,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>48</v>
+        <v>1146</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>48</v>
@@ -7892,7 +7902,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>48</v>
@@ -7936,10 +7946,10 @@
         <v>48</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>48</v>
@@ -7959,7 +7969,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>56</v>
@@ -7968,7 +7978,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>48</v>
@@ -7977,7 +7987,7 @@
         <v>77</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>48</v>
@@ -7997,7 +8007,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>56</v>
@@ -8012,10 +8022,10 @@
         <v>48</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>48</v>
@@ -8064,7 +8074,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>14</v>
@@ -8079,10 +8089,10 @@
         <v>48</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>48</v>
@@ -8091,7 +8101,7 @@
         <v>293</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -8102,7 +8112,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>37</v>
@@ -8117,10 +8127,10 @@
         <v>48</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>48</v>
@@ -8129,7 +8139,7 @@
         <v>293</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K114">
         <v>9</v>
@@ -8140,7 +8150,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>56</v>
@@ -8155,10 +8165,10 @@
         <v>48</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>48</v>
@@ -8167,7 +8177,7 @@
         <v>293</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K115">
         <v>14</v>
@@ -8178,7 +8188,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>56</v>
@@ -8193,10 +8203,10 @@
         <v>48</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>48</v>
@@ -8205,7 +8215,7 @@
         <v>293</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K116">
         <v>19</v>
@@ -8245,7 +8255,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>14</v>
@@ -8260,10 +8270,10 @@
         <v>48</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>48</v>
@@ -8272,7 +8282,7 @@
         <v>293</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K118">
         <v>2</v>
@@ -8283,7 +8293,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>56</v>
@@ -8298,10 +8308,10 @@
         <v>48</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>48</v>
@@ -8310,7 +8320,7 @@
         <v>293</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K119">
         <v>9</v>
@@ -8321,7 +8331,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>56</v>
@@ -8336,10 +8346,10 @@
         <v>48</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>48</v>
@@ -8348,7 +8358,7 @@
         <v>293</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K120">
         <v>14</v>
@@ -8359,7 +8369,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>37</v>
@@ -8374,10 +8384,10 @@
         <v>48</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>48</v>
@@ -8386,7 +8396,7 @@
         <v>293</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K121">
         <v>19</v>
@@ -8426,7 +8436,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>14</v>
@@ -8435,16 +8445,16 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>48</v>
@@ -8453,7 +8463,7 @@
         <v>293</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K123">
         <v>24</v>
@@ -8464,7 +8474,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>37</v>
@@ -8479,10 +8489,10 @@
         <v>48</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>48</v>
@@ -8491,7 +8501,7 @@
         <v>293</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K124">
         <v>31</v>
@@ -8502,7 +8512,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>56</v>
@@ -8514,13 +8524,13 @@
         <v>48</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>48</v>
@@ -8529,7 +8539,7 @@
         <v>293</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K125">
         <v>36</v>
@@ -8540,7 +8550,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>56</v>
@@ -8555,10 +8565,10 @@
         <v>112</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>48</v>
@@ -8567,7 +8577,7 @@
         <v>293</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K126">
         <v>41</v>
@@ -8607,7 +8617,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>14</v>
@@ -8622,10 +8632,10 @@
         <v>48</v>
       </c>
       <c r="F128" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>48</v>
@@ -8634,7 +8644,7 @@
         <v>293</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K128">
         <v>12</v>
@@ -8645,7 +8655,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>14</v>
@@ -8660,10 +8670,10 @@
         <v>48</v>
       </c>
       <c r="F129" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>48</v>
@@ -8672,7 +8682,7 @@
         <v>293</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K129">
         <v>19</v>
@@ -8683,7 +8693,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>37</v>
@@ -8692,16 +8702,16 @@
         <v>6</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F130" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>48</v>
@@ -8710,7 +8720,7 @@
         <v>293</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K130">
         <v>26</v>
@@ -8721,7 +8731,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>56</v>
@@ -8733,13 +8743,13 @@
         <v>48</v>
       </c>
       <c r="E131" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>48</v>
@@ -8748,7 +8758,7 @@
         <v>293</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K131">
         <v>31</v>
@@ -8788,7 +8798,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>14</v>
@@ -8803,10 +8813,10 @@
         <v>48</v>
       </c>
       <c r="F133" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G133" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>48</v>
@@ -8815,7 +8825,7 @@
         <v>293</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K133">
         <v>12</v>
@@ -8826,7 +8836,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>37</v>
@@ -8841,10 +8851,10 @@
         <v>48</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>48</v>
@@ -8853,7 +8863,7 @@
         <v>293</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K134">
         <v>19</v>
@@ -8864,7 +8874,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>37</v>
@@ -8879,10 +8889,10 @@
         <v>48</v>
       </c>
       <c r="F135" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>48</v>
@@ -8891,7 +8901,7 @@
         <v>293</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K135">
         <v>24</v>
@@ -8902,7 +8912,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>56</v>
@@ -8914,13 +8924,13 @@
         <v>48</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>48</v>
@@ -8929,7 +8939,7 @@
         <v>293</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K136">
         <v>29</v>
@@ -8969,7 +8979,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>14</v>
@@ -8984,10 +8994,10 @@
         <v>48</v>
       </c>
       <c r="F138" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>48</v>
@@ -8996,7 +9006,7 @@
         <v>293</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K138">
         <v>13</v>
@@ -9007,7 +9017,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>37</v>
@@ -9022,10 +9032,10 @@
         <v>48</v>
       </c>
       <c r="F139" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G139" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>48</v>
@@ -9034,7 +9044,7 @@
         <v>293</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K139">
         <v>20</v>
@@ -9045,7 +9055,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>56</v>
@@ -9057,13 +9067,13 @@
         <v>48</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>48</v>
@@ -9072,7 +9082,7 @@
         <v>293</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K140">
         <v>25</v>
@@ -9083,7 +9093,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>56</v>
@@ -9098,10 +9108,10 @@
         <v>48</v>
       </c>
       <c r="F141" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>397</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>48</v>
@@ -9110,7 +9120,7 @@
         <v>293</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K141">
         <v>30</v>
@@ -9150,7 +9160,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>14</v>
@@ -9165,10 +9175,10 @@
         <v>48</v>
       </c>
       <c r="F143" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>48</v>
@@ -9177,7 +9187,7 @@
         <v>293</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K143">
         <v>2</v>
@@ -9188,7 +9198,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>37</v>
@@ -9203,10 +9213,10 @@
         <v>48</v>
       </c>
       <c r="F144" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>48</v>
@@ -9215,7 +9225,7 @@
         <v>293</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K144">
         <v>9</v>
@@ -9226,7 +9236,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>56</v>
@@ -9241,10 +9251,10 @@
         <v>48</v>
       </c>
       <c r="F145" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>48</v>
@@ -9253,7 +9263,7 @@
         <v>293</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K145">
         <v>14</v>
@@ -9264,7 +9274,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>56</v>
@@ -9279,10 +9289,10 @@
         <v>48</v>
       </c>
       <c r="F146" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>48</v>
@@ -9291,7 +9301,7 @@
         <v>293</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K146">
         <v>19</v>
@@ -9331,7 +9341,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>14</v>
@@ -9346,16 +9356,16 @@
         <v>48</v>
       </c>
       <c r="F148" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H148" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I148" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>48</v>
@@ -9369,7 +9379,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>14</v>
@@ -9384,16 +9394,16 @@
         <v>48</v>
       </c>
       <c r="F149" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="H149" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>48</v>
@@ -9407,7 +9417,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>14</v>
@@ -9419,19 +9429,19 @@
         <v>48</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>48</v>
@@ -9445,7 +9455,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>14</v>
@@ -9460,16 +9470,16 @@
         <v>48</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="H151" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>48</v>
@@ -9483,7 +9493,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>14</v>
@@ -9498,16 +9508,16 @@
         <v>48</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>426</v>
-      </c>
       <c r="H152" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>48</v>
@@ -9521,7 +9531,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>14</v>
@@ -9536,16 +9546,16 @@
         <v>48</v>
       </c>
       <c r="F153" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G153" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="H153" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>48</v>
@@ -9559,7 +9569,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>14</v>
@@ -9574,16 +9584,16 @@
         <v>48</v>
       </c>
       <c r="F154" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="H154" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>48</v>
@@ -9597,7 +9607,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>14</v>
@@ -9612,16 +9622,16 @@
         <v>48</v>
       </c>
       <c r="F155" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="H155" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>48</v>
@@ -9635,7 +9645,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>37</v>
@@ -9644,22 +9654,22 @@
         <v>7</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F156" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="H156" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>48</v>
@@ -9673,7 +9683,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>37</v>
@@ -9688,16 +9698,16 @@
         <v>48</v>
       </c>
       <c r="F157" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="H157" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>48</v>
@@ -9711,7 +9721,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>37</v>
@@ -9726,16 +9736,16 @@
         <v>48</v>
       </c>
       <c r="F158" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="H158" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>48</v>
@@ -9749,7 +9759,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>37</v>
@@ -9764,16 +9774,16 @@
         <v>48</v>
       </c>
       <c r="F159" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G159" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="H159" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>48</v>
@@ -9787,7 +9797,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>37</v>
@@ -9802,16 +9812,16 @@
         <v>48</v>
       </c>
       <c r="F160" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="H160" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>48</v>
@@ -9825,7 +9835,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>56</v>
@@ -9837,19 +9847,19 @@
         <v>48</v>
       </c>
       <c r="E161" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>454</v>
-      </c>
       <c r="H161" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>48</v>
@@ -9863,7 +9873,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>56</v>
@@ -9875,19 +9885,19 @@
         <v>48</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="G162" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="H162" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>48</v>
@@ -9901,7 +9911,7 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>56</v>
@@ -9916,16 +9926,16 @@
         <v>48</v>
       </c>
       <c r="F163" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="H163" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>48</v>
@@ -9939,7 +9949,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>56</v>
@@ -9954,16 +9964,16 @@
         <v>48</v>
       </c>
       <c r="F164" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="H164" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>48</v>
@@ -9977,7 +9987,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>56</v>
@@ -9992,16 +10002,16 @@
         <v>246</v>
       </c>
       <c r="F165" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="H165" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>48</v>
@@ -10015,7 +10025,7 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>56</v>
@@ -10030,16 +10040,16 @@
         <v>48</v>
       </c>
       <c r="F166" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="H166" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>48</v>
@@ -10053,7 +10063,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>56</v>
@@ -10068,16 +10078,16 @@
         <v>246</v>
       </c>
       <c r="F167" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="H167" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>48</v>
@@ -10091,7 +10101,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>56</v>
@@ -10106,16 +10116,16 @@
         <v>48</v>
       </c>
       <c r="F168" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="H168" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>48</v>
@@ -10129,7 +10139,7 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>56</v>
@@ -10144,16 +10154,16 @@
         <v>48</v>
       </c>
       <c r="F169" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="H169" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>48</v>
@@ -10196,7 +10206,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>48</v>
@@ -10254,7 +10264,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>14</v>
@@ -10269,19 +10279,19 @@
         <v>48</v>
       </c>
       <c r="F173" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="H173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I173" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="H173" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I173" s="1" t="s">
+      <c r="J173" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="K173">
         <v>2</v>
@@ -10292,7 +10302,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>14</v>
@@ -10307,19 +10317,19 @@
         <v>48</v>
       </c>
       <c r="F174" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G174" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="G174" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="H174" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I174" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J174" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="J174" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="K174">
         <v>9</v>
@@ -10330,7 +10340,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>14</v>
@@ -10345,19 +10355,19 @@
         <v>48</v>
       </c>
       <c r="F175" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G175" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="H175" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I175" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J175" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="K175">
         <v>16</v>
@@ -10368,7 +10378,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>37</v>
@@ -10383,19 +10393,19 @@
         <v>48</v>
       </c>
       <c r="F176" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G176" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="H176" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I176" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J176" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="K176">
         <v>23</v>
@@ -10406,7 +10416,7 @@
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>37</v>
@@ -10421,19 +10431,19 @@
         <v>48</v>
       </c>
       <c r="F177" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G177" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="H177" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I177" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J177" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="K177">
         <v>28</v>
@@ -10444,7 +10454,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>56</v>
@@ -10459,19 +10469,19 @@
         <v>48</v>
       </c>
       <c r="F178" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="H178" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I178" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J178" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="K178">
         <v>33</v>
@@ -10482,7 +10492,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>56</v>
@@ -10497,19 +10507,19 @@
         <v>48</v>
       </c>
       <c r="F179" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="H179" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I179" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J179" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="K179">
         <v>38</v>
@@ -10520,7 +10530,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>56</v>
@@ -10535,19 +10545,19 @@
         <v>48</v>
       </c>
       <c r="F180" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="G180" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="H180" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I180" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J180" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="K180">
         <v>43</v>
@@ -10558,7 +10568,7 @@
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>56</v>
@@ -10573,19 +10583,19 @@
         <v>48</v>
       </c>
       <c r="F181" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="H181" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I181" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J181" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="K181">
         <v>48</v>
@@ -10625,7 +10635,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>14</v>
@@ -10640,19 +10650,19 @@
         <v>48</v>
       </c>
       <c r="F183" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="H183" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J183" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="K183">
         <v>10</v>
@@ -10663,7 +10673,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>37</v>
@@ -10678,19 +10688,19 @@
         <v>48</v>
       </c>
       <c r="F184" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="H184" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K184">
         <v>17</v>
@@ -10701,7 +10711,7 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>37</v>
@@ -10716,19 +10726,19 @@
         <v>48</v>
       </c>
       <c r="F185" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="G185" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="H185" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K185">
         <v>22</v>
@@ -10739,7 +10749,7 @@
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>56</v>
@@ -10751,22 +10761,22 @@
         <v>48</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="H186" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K186">
         <v>27</v>
@@ -10806,7 +10816,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>37</v>
@@ -10821,19 +10831,19 @@
         <v>48</v>
       </c>
       <c r="F188" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="H188" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J188" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="J188" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="K188">
         <v>8</v>
@@ -10844,7 +10854,7 @@
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>56</v>
@@ -10859,19 +10869,19 @@
         <v>48</v>
       </c>
       <c r="F189" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G189" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="H189" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K189">
         <v>13</v>
@@ -10882,7 +10892,7 @@
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>56</v>
@@ -10894,22 +10904,22 @@
         <v>48</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>307</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K190">
         <v>18</v>
@@ -10949,7 +10959,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>14</v>
@@ -10964,19 +10974,19 @@
         <v>48</v>
       </c>
       <c r="F192" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="H192" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J192" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="K192">
         <v>17</v>
@@ -10987,7 +10997,7 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>37</v>
@@ -11002,19 +11012,19 @@
         <v>48</v>
       </c>
       <c r="F193" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="G193" s="1" t="s">
-        <v>539</v>
-      </c>
       <c r="H193" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K193">
         <v>24</v>
@@ -11025,7 +11035,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>56</v>
@@ -11037,22 +11047,22 @@
         <v>48</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F194" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G194" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="H194" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K194">
         <v>29</v>
@@ -11092,7 +11102,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>14</v>
@@ -11107,19 +11117,19 @@
         <v>48</v>
       </c>
       <c r="F196" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="H196" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J196" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="J196" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="K196">
         <v>18</v>
@@ -11130,7 +11140,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>37</v>
@@ -11145,19 +11155,19 @@
         <v>48</v>
       </c>
       <c r="F197" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G197" s="1" t="s">
-        <v>549</v>
-      </c>
       <c r="H197" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K197">
         <v>25</v>
@@ -11168,7 +11178,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>56</v>
@@ -11183,19 +11193,19 @@
         <v>48</v>
       </c>
       <c r="F198" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="G198" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="H198" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K198">
         <v>30</v>
@@ -11235,7 +11245,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>14</v>
@@ -11250,16 +11260,16 @@
         <v>48</v>
       </c>
       <c r="F200" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="H200" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I200" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>48</v>
@@ -11273,7 +11283,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>37</v>
@@ -11288,16 +11298,16 @@
         <v>48</v>
       </c>
       <c r="F201" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G201" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G201" s="1" t="s">
-        <v>559</v>
-      </c>
       <c r="H201" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>48</v>
@@ -11311,7 +11321,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>37</v>
@@ -11326,16 +11336,16 @@
         <v>48</v>
       </c>
       <c r="F202" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="H202" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>48</v>
@@ -11349,7 +11359,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>37</v>
@@ -11364,16 +11374,16 @@
         <v>48</v>
       </c>
       <c r="F203" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="H203" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>48</v>
@@ -11387,7 +11397,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>56</v>
@@ -11402,16 +11412,16 @@
         <v>48</v>
       </c>
       <c r="F204" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="H204" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>48</v>
@@ -11425,7 +11435,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>56</v>
@@ -11440,16 +11450,16 @@
         <v>48</v>
       </c>
       <c r="F205" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="H205" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>48</v>
@@ -11463,7 +11473,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>56</v>
@@ -11475,19 +11485,19 @@
         <v>48</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>48</v>
@@ -11530,7 +11540,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>14</v>
@@ -11545,16 +11555,16 @@
         <v>48</v>
       </c>
       <c r="F208" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G208" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="H208" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I208" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>48</v>
@@ -11568,7 +11578,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>14</v>
@@ -11583,16 +11593,16 @@
         <v>48</v>
       </c>
       <c r="F209" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="H209" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>48</v>
@@ -11606,7 +11616,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>37</v>
@@ -11621,16 +11631,16 @@
         <v>48</v>
       </c>
       <c r="F210" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G210" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="H210" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>48</v>
@@ -11644,7 +11654,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>37</v>
@@ -11659,16 +11669,16 @@
         <v>48</v>
       </c>
       <c r="F211" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G211" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="H211" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>48</v>
@@ -11682,7 +11692,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>56</v>
@@ -11694,19 +11704,19 @@
         <v>48</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F212" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="H212" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>48</v>
@@ -11720,7 +11730,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>56</v>
@@ -11735,16 +11745,16 @@
         <v>48</v>
       </c>
       <c r="F213" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="H213" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>48</v>
@@ -11758,7 +11768,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>56</v>
@@ -11773,16 +11783,16 @@
         <v>48</v>
       </c>
       <c r="F214" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="G214" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="H214" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>48</v>
@@ -11796,7 +11806,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>56</v>
@@ -11811,16 +11821,16 @@
         <v>48</v>
       </c>
       <c r="F215" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G215" s="1" t="s">
-        <v>599</v>
-      </c>
       <c r="H215" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>48</v>
@@ -11834,7 +11844,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>56</v>
@@ -11849,16 +11859,16 @@
         <v>48</v>
       </c>
       <c r="F216" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G216" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="G216" s="1" t="s">
-        <v>602</v>
-      </c>
       <c r="H216" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>48</v>
@@ -11872,7 +11882,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>56</v>
@@ -11884,19 +11894,19 @@
         <v>48</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>48</v>
@@ -11939,7 +11949,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>14</v>
@@ -11954,16 +11964,16 @@
         <v>48</v>
       </c>
       <c r="F219" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G219" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="H219" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I219" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I219" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>48</v>
@@ -11977,7 +11987,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>37</v>
@@ -11992,16 +12002,16 @@
         <v>48</v>
       </c>
       <c r="F220" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G220" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="G220" s="1" t="s">
-        <v>612</v>
-      </c>
       <c r="H220" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>48</v>
@@ -12015,7 +12025,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>56</v>
@@ -12027,19 +12037,19 @@
         <v>48</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F221" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G221" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="G221" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="H221" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>48</v>
@@ -12082,7 +12092,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>48</v>
@@ -12140,7 +12150,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>14</v>
@@ -12155,19 +12165,19 @@
         <v>48</v>
       </c>
       <c r="F225" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I225" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="G225" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I225" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="J225" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K225">
         <v>2</v>
@@ -12178,7 +12188,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>14</v>
@@ -12193,7 +12203,7 @@
         <v>48</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>48</v>
@@ -12202,10 +12212,10 @@
         <v>48</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K226">
         <v>9</v>
@@ -12216,7 +12226,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>14</v>
@@ -12231,7 +12241,7 @@
         <v>48</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>48</v>
@@ -12240,10 +12250,10 @@
         <v>48</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K227">
         <v>16</v>
@@ -12254,7 +12264,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>37</v>
@@ -12269,7 +12279,7 @@
         <v>48</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>48</v>
@@ -12278,10 +12288,10 @@
         <v>48</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K228">
         <v>23</v>
@@ -12292,7 +12302,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>37</v>
@@ -12307,7 +12317,7 @@
         <v>48</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>48</v>
@@ -12316,10 +12326,10 @@
         <v>48</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K229">
         <v>28</v>
@@ -12330,7 +12340,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>56</v>
@@ -12345,7 +12355,7 @@
         <v>48</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>48</v>
@@ -12354,10 +12364,10 @@
         <v>48</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K230">
         <v>33</v>
@@ -12368,7 +12378,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>56</v>
@@ -12383,7 +12393,7 @@
         <v>48</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>48</v>
@@ -12392,10 +12402,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K231">
         <v>38</v>
@@ -12406,7 +12416,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>56</v>
@@ -12421,7 +12431,7 @@
         <v>48</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>48</v>
@@ -12430,10 +12440,10 @@
         <v>48</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K232">
         <v>43</v>
@@ -12444,7 +12454,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>56</v>
@@ -12459,19 +12469,19 @@
         <v>48</v>
       </c>
       <c r="F233" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G233" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="G233" s="1" t="s">
-        <v>636</v>
-      </c>
       <c r="H233" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K233">
         <v>48</v>
@@ -12511,7 +12521,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>14</v>
@@ -12520,13 +12530,13 @@
         <v>4</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>48</v>
@@ -12535,10 +12545,10 @@
         <v>48</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K235">
         <v>8</v>
@@ -12549,7 +12559,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>14</v>
@@ -12561,7 +12571,7 @@
         <v>48</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>152</v>
@@ -12573,10 +12583,10 @@
         <v>48</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K236">
         <v>15</v>
@@ -12587,7 +12597,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>37</v>
@@ -12602,7 +12612,7 @@
         <v>48</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>48</v>
@@ -12611,10 +12621,10 @@
         <v>48</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K237">
         <v>22</v>
@@ -12625,7 +12635,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>56</v>
@@ -12640,7 +12650,7 @@
         <v>48</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>48</v>
@@ -12649,10 +12659,10 @@
         <v>48</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K238">
         <v>27</v>
@@ -12692,7 +12702,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>14</v>
@@ -12707,7 +12717,7 @@
         <v>48</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>48</v>
@@ -12716,10 +12726,10 @@
         <v>48</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K240">
         <v>2</v>
@@ -12730,7 +12740,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>37</v>
@@ -12745,7 +12755,7 @@
         <v>48</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>48</v>
@@ -12754,10 +12764,10 @@
         <v>48</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K241">
         <v>9</v>
@@ -12768,7 +12778,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>56</v>
@@ -12783,7 +12793,7 @@
         <v>246</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>48</v>
@@ -12792,10 +12802,10 @@
         <v>48</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K242">
         <v>14</v>
@@ -12806,7 +12816,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>56</v>
@@ -12821,7 +12831,7 @@
         <v>48</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>48</v>
@@ -12830,10 +12840,10 @@
         <v>48</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K243">
         <v>19</v>
@@ -12873,7 +12883,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>14</v>
@@ -12888,7 +12898,7 @@
         <v>48</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>48</v>
@@ -12897,10 +12907,10 @@
         <v>48</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K245">
         <v>2</v>
@@ -12911,7 +12921,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>37</v>
@@ -12926,7 +12936,7 @@
         <v>48</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>48</v>
@@ -12935,10 +12945,10 @@
         <v>48</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K246">
         <v>9</v>
@@ -12949,7 +12959,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>37</v>
@@ -12964,7 +12974,7 @@
         <v>48</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>48</v>
@@ -12973,10 +12983,10 @@
         <v>48</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K247">
         <v>14</v>
@@ -12987,7 +12997,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>56</v>
@@ -13002,19 +13012,19 @@
         <v>48</v>
       </c>
       <c r="F248" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G248" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="G248" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="H248" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K248">
         <v>19</v>
@@ -13054,7 +13064,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>14</v>
@@ -13063,13 +13073,13 @@
         <v>2</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>48</v>
@@ -13078,10 +13088,10 @@
         <v>48</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K250">
         <v>2</v>
@@ -13092,7 +13102,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>37</v>
@@ -13107,7 +13117,7 @@
         <v>48</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>48</v>
@@ -13116,10 +13126,10 @@
         <v>48</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K251">
         <v>9</v>
@@ -13130,7 +13140,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>37</v>
@@ -13145,7 +13155,7 @@
         <v>48</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>48</v>
@@ -13154,10 +13164,10 @@
         <v>48</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K252">
         <v>14</v>
@@ -13168,7 +13178,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>37</v>
@@ -13177,13 +13187,13 @@
         <v>6</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>48</v>
@@ -13192,10 +13202,10 @@
         <v>48</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K253">
         <v>19</v>
@@ -13206,7 +13216,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>56</v>
@@ -13221,7 +13231,7 @@
         <v>48</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>48</v>
@@ -13230,10 +13240,10 @@
         <v>48</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K254">
         <v>24</v>
@@ -13244,7 +13254,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>56</v>
@@ -13256,7 +13266,7 @@
         <v>48</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>61</v>
@@ -13268,10 +13278,10 @@
         <v>48</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K255">
         <v>29</v>
@@ -13282,7 +13292,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>56</v>
@@ -13297,7 +13307,7 @@
         <v>48</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>48</v>
@@ -13306,10 +13316,10 @@
         <v>48</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K256">
         <v>34</v>
@@ -13320,7 +13330,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>56</v>
@@ -13332,22 +13342,22 @@
         <v>48</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K257">
         <v>39</v>
@@ -13358,7 +13368,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>56</v>
@@ -13373,7 +13383,7 @@
         <v>48</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>48</v>
@@ -13382,10 +13392,10 @@
         <v>48</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K258">
         <v>44</v>
@@ -13396,7 +13406,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>56</v>
@@ -13411,19 +13421,19 @@
         <v>48</v>
       </c>
       <c r="F259" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G259" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="G259" s="1" t="s">
-        <v>683</v>
-      </c>
       <c r="H259" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K259">
         <v>49</v>
@@ -13463,7 +13473,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>14</v>
@@ -13478,16 +13488,16 @@
         <v>48</v>
       </c>
       <c r="F261" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I261" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="G261" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I261" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>48</v>
@@ -13501,7 +13511,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>14</v>
@@ -13516,7 +13526,7 @@
         <v>48</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>48</v>
@@ -13525,7 +13535,7 @@
         <v>48</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>48</v>
@@ -13539,7 +13549,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>37</v>
@@ -13551,11 +13561,11 @@
         <v>48</v>
       </c>
       <c r="E263" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F263" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="F263" s="1" t="s">
-        <v>691</v>
-      </c>
       <c r="G263" s="1" t="s">
         <v>48</v>
       </c>
@@ -13563,7 +13573,7 @@
         <v>48</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>48</v>
@@ -13577,7 +13587,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>37</v>
@@ -13592,7 +13602,7 @@
         <v>48</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>48</v>
@@ -13601,7 +13611,7 @@
         <v>48</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>48</v>
@@ -13615,7 +13625,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>37</v>
@@ -13630,7 +13640,7 @@
         <v>48</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>48</v>
@@ -13639,7 +13649,7 @@
         <v>48</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>48</v>
@@ -13653,7 +13663,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>56</v>
@@ -13668,7 +13678,7 @@
         <v>48</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>48</v>
@@ -13677,7 +13687,7 @@
         <v>48</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>48</v>
@@ -13691,7 +13701,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>56</v>
@@ -13706,7 +13716,7 @@
         <v>48</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>48</v>
@@ -13715,7 +13725,7 @@
         <v>48</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>48</v>
@@ -13729,7 +13739,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>56</v>
@@ -13741,7 +13751,7 @@
         <v>48</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>77</v>
@@ -13753,7 +13763,7 @@
         <v>48</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>48</v>
@@ -13767,7 +13777,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>56</v>
@@ -13779,10 +13789,10 @@
         <v>48</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>48</v>
@@ -13791,7 +13801,7 @@
         <v>48</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>48</v>
@@ -13805,7 +13815,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>56</v>
@@ -13820,7 +13830,7 @@
         <v>48</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>48</v>
@@ -13829,7 +13839,7 @@
         <v>48</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>48</v>
@@ -13872,7 +13882,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>37</v>
@@ -13887,16 +13897,16 @@
         <v>48</v>
       </c>
       <c r="F272" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I272" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>48</v>
@@ -13910,7 +13920,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>56</v>
@@ -13925,7 +13935,7 @@
         <v>48</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>48</v>
@@ -13934,7 +13944,7 @@
         <v>48</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>48</v>
@@ -13948,7 +13958,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>56</v>
@@ -13963,7 +13973,7 @@
         <v>48</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>48</v>
@@ -13972,7 +13982,7 @@
         <v>48</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>48</v>
@@ -14015,7 +14025,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>48</v>
@@ -14073,7 +14083,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>56</v>
@@ -14088,16 +14098,16 @@
         <v>48</v>
       </c>
       <c r="F278" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I278" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="G278" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H278" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I278" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>48</v>
@@ -14111,7 +14121,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>56</v>
@@ -14126,16 +14136,16 @@
         <v>48</v>
       </c>
       <c r="F279" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I279" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I279" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>48</v>
@@ -14149,7 +14159,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>56</v>
@@ -14164,7 +14174,7 @@
         <v>48</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>48</v>
@@ -14173,7 +14183,7 @@
         <v>48</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>48</v>
@@ -14187,7 +14197,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>56</v>
@@ -14202,16 +14212,16 @@
         <v>48</v>
       </c>
       <c r="F281" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G281" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="G281" s="1" t="s">
-        <v>724</v>
-      </c>
       <c r="H281" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>48</v>
@@ -14225,7 +14235,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>14</v>
@@ -14240,16 +14250,16 @@
         <v>48</v>
       </c>
       <c r="F282" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G282" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="G282" s="1" t="s">
-        <v>727</v>
-      </c>
       <c r="H282" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>48</v>
@@ -14292,7 +14302,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>14</v>
@@ -14307,16 +14317,16 @@
         <v>48</v>
       </c>
       <c r="F284" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G284" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="G284" s="1" t="s">
+      <c r="H284" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I284" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="H284" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I284" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>48</v>
@@ -14330,7 +14340,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>37</v>
@@ -14345,16 +14355,16 @@
         <v>48</v>
       </c>
       <c r="F285" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G285" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="G285" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="H285" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>48</v>
@@ -14368,7 +14378,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>37</v>
@@ -14383,16 +14393,16 @@
         <v>48</v>
       </c>
       <c r="F286" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G286" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="G286" s="1" t="s">
-        <v>737</v>
-      </c>
       <c r="H286" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>48</v>
@@ -14406,7 +14416,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>56</v>
@@ -14421,16 +14431,16 @@
         <v>48</v>
       </c>
       <c r="F287" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G287" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="G287" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="H287" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>48</v>
@@ -14444,7 +14454,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>56</v>
@@ -14459,16 +14469,16 @@
         <v>143</v>
       </c>
       <c r="F288" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G288" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="G288" s="1" t="s">
-        <v>743</v>
-      </c>
       <c r="H288" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>48</v>
@@ -14511,7 +14521,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>14</v>
@@ -14526,16 +14536,16 @@
         <v>48</v>
       </c>
       <c r="F290" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I290" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I290" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>48</v>
@@ -14549,7 +14559,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>56</v>
@@ -14561,7 +14571,7 @@
         <v>48</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>77</v>
@@ -14573,7 +14583,7 @@
         <v>48</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>48</v>
@@ -14587,7 +14597,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>37</v>
@@ -14602,7 +14612,7 @@
         <v>48</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>48</v>
@@ -14611,7 +14621,7 @@
         <v>48</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>48</v>
@@ -14654,7 +14664,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>48</v>
@@ -14712,7 +14722,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>14</v>
@@ -14721,23 +14731,23 @@
         <v>0</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F296" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G296" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K296">
         <v>33</v>
@@ -14748,7 +14758,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>37</v>
@@ -14757,23 +14767,23 @@
         <v>0</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H297" s="1"/>
       <c r="I297" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K297">
         <v>38</v>
@@ -14784,7 +14794,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>56</v>
@@ -14793,23 +14803,23 @@
         <v>0</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H298" s="1"/>
       <c r="I298" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K298">
         <v>40</v>
@@ -14847,7 +14857,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>48</v>
@@ -14901,7 +14911,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>14</v>
@@ -14910,23 +14920,23 @@
         <v>0</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H302" s="1"/>
       <c r="I302" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K302">
         <v>9</v>
@@ -14937,7 +14947,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>56</v>
@@ -14946,23 +14956,23 @@
         <v>0</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>307</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H303" s="1"/>
       <c r="I303" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K303">
         <v>14</v>
@@ -14973,7 +14983,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>56</v>
@@ -14982,20 +14992,20 @@
         <v>2</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E304" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F304" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="F304" s="1" t="s">
+      <c r="G304" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="G304" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="H304" s="1"/>
       <c r="I304" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>48</v>
@@ -15009,7 +15019,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>37</v>
@@ -15018,20 +15028,20 @@
         <v>3</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E305" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F305" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="F305" s="1" t="s">
+      <c r="G305" s="1" t="s">
         <v>774</v>
-      </c>
-      <c r="G305" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="H305" s="1"/>
       <c r="I305" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>48</v>
@@ -15045,7 +15055,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>37</v>
@@ -15054,20 +15064,20 @@
         <v>3</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F306" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G306" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="G306" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="H306" s="1"/>
       <c r="I306" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>48</v>
@@ -15081,7 +15091,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>37</v>
@@ -15090,20 +15100,20 @@
         <v>6</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F307" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G307" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="G307" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="H307" s="1"/>
       <c r="I307" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>48</v>
@@ -15117,7 +15127,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>37</v>
@@ -15126,20 +15136,20 @@
         <v>6</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F308" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G308" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="G308" s="1" t="s">
-        <v>785</v>
       </c>
       <c r="H308" s="1"/>
       <c r="I308" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>48</v>
@@ -15153,7 +15163,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>56</v>
@@ -15162,23 +15172,23 @@
         <v>3</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E309" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="F309" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="F309" s="1" t="s">
+      <c r="G309" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="G309" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="H309" s="1"/>
       <c r="I309" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="K309">
         <v>3</v>
@@ -15189,7 +15199,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>56</v>
@@ -15198,20 +15208,20 @@
         <v>3</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F310" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G310" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="H310" s="1"/>
       <c r="I310" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>48</v>
@@ -15225,7 +15235,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>56</v>
@@ -15234,20 +15244,20 @@
         <v>6</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F311" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G311" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="H311" s="1"/>
       <c r="I311" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>48</v>
@@ -15261,7 +15271,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>56</v>
@@ -15270,20 +15280,20 @@
         <v>6</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F312" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="G312" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>799</v>
       </c>
       <c r="H312" s="1"/>
       <c r="I312" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>48</v>
@@ -15326,7 +15336,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>48</v>
@@ -15384,7 +15394,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>14</v>
@@ -15399,13 +15409,13 @@
         <v>48</v>
       </c>
       <c r="F316" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="G316" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="G316" s="1" t="s">
+      <c r="H316" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="H316" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="I316" s="1" t="s">
         <v>17</v>
@@ -15422,7 +15432,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>56</v>
@@ -15437,13 +15447,13 @@
         <v>48</v>
       </c>
       <c r="F317" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="G317" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="G317" s="1" t="s">
+      <c r="H317" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="H317" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="I317" s="1" t="s">
         <v>17</v>
@@ -15460,7 +15470,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>14</v>
@@ -15475,13 +15485,13 @@
         <v>48</v>
       </c>
       <c r="F318" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G318" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="G318" s="1" t="s">
+      <c r="H318" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="H318" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="I318" s="1" t="s">
         <v>17</v>
@@ -15498,7 +15508,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>56</v>
@@ -15513,13 +15523,13 @@
         <v>48</v>
       </c>
       <c r="F319" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G319" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="G319" s="1" t="s">
+      <c r="H319" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="H319" s="1" t="s">
-        <v>816</v>
       </c>
       <c r="I319" s="1" t="s">
         <v>17</v>
@@ -15536,7 +15546,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>14</v>
@@ -15551,13 +15561,13 @@
         <v>48</v>
       </c>
       <c r="F320" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G320" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="G320" s="1" t="s">
+      <c r="H320" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="H320" s="1" t="s">
-        <v>820</v>
       </c>
       <c r="I320" s="1" t="s">
         <v>17</v>
@@ -15574,7 +15584,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>14</v>
@@ -15589,13 +15599,13 @@
         <v>48</v>
       </c>
       <c r="F321" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="G321" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="G321" s="1" t="s">
+      <c r="H321" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="H321" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="I321" s="1" t="s">
         <v>17</v>
@@ -15612,7 +15622,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>14</v>
@@ -15627,13 +15637,13 @@
         <v>48</v>
       </c>
       <c r="F322" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G322" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="G322" s="1" t="s">
+      <c r="H322" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="H322" s="1" t="s">
-        <v>828</v>
       </c>
       <c r="I322" s="1" t="s">
         <v>17</v>
@@ -15650,7 +15660,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>14</v>
@@ -15665,13 +15675,13 @@
         <v>48</v>
       </c>
       <c r="F323" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="G323" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="G323" s="1" t="s">
+      <c r="H323" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>832</v>
       </c>
       <c r="I323" s="1" t="s">
         <v>17</v>
@@ -15688,7 +15698,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>56</v>
@@ -15703,13 +15713,13 @@
         <v>48</v>
       </c>
       <c r="F324" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="G324" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="G324" s="1" t="s">
+      <c r="H324" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="H324" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="I324" s="1" t="s">
         <v>127</v>
@@ -15726,7 +15736,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>56</v>
@@ -15735,19 +15745,19 @@
         <v>0</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F325" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="G325" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="G325" s="1" t="s">
+      <c r="H325" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="H325" s="1" t="s">
-        <v>840</v>
       </c>
       <c r="I325" s="1" t="s">
         <v>127</v>
@@ -15764,7 +15774,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>14</v>
@@ -15779,13 +15789,13 @@
         <v>48</v>
       </c>
       <c r="F326" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G326" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="G326" s="1" t="s">
+      <c r="H326" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="H326" s="1" t="s">
-        <v>844</v>
       </c>
       <c r="I326" s="1" t="s">
         <v>127</v>
@@ -15802,7 +15812,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>56</v>
@@ -15814,16 +15824,16 @@
         <v>48</v>
       </c>
       <c r="E327" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F327" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="F327" s="1" t="s">
+      <c r="G327" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="G327" s="1" t="s">
+      <c r="H327" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="H327" s="1" t="s">
-        <v>849</v>
       </c>
       <c r="I327" s="1" t="s">
         <v>104</v>
@@ -15869,7 +15879,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>14</v>
@@ -15884,13 +15894,13 @@
         <v>48</v>
       </c>
       <c r="F329" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="G329" s="1" t="s">
-        <v>852</v>
-      </c>
       <c r="H329" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I329" s="1" t="s">
         <v>154</v>
@@ -15907,7 +15917,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>14</v>
@@ -15922,13 +15932,13 @@
         <v>48</v>
       </c>
       <c r="F330" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="G330" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="G330" s="1" t="s">
+      <c r="H330" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="H330" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="I330" s="1" t="s">
         <v>154</v>
@@ -15945,7 +15955,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>56</v>
@@ -15960,13 +15970,13 @@
         <v>48</v>
       </c>
       <c r="F331" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="G331" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="G331" s="1" t="s">
+      <c r="H331" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="H331" s="1" t="s">
-        <v>860</v>
       </c>
       <c r="I331" s="1" t="s">
         <v>154</v>
@@ -15983,7 +15993,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>56</v>
@@ -15995,16 +16005,16 @@
         <v>48</v>
       </c>
       <c r="E332" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G332" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="F332" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="G332" s="1" t="s">
+      <c r="H332" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="H332" s="1" t="s">
-        <v>864</v>
       </c>
       <c r="I332" s="1" t="s">
         <v>154</v>
@@ -16021,7 +16031,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>14</v>
@@ -16036,13 +16046,13 @@
         <v>48</v>
       </c>
       <c r="F333" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="G333" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="G333" s="1" t="s">
+      <c r="H333" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="I333" s="1" t="s">
         <v>154</v>
@@ -16059,7 +16069,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>14</v>
@@ -16074,13 +16084,13 @@
         <v>48</v>
       </c>
       <c r="F334" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="G334" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="G334" s="1" t="s">
+      <c r="H334" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="I334" s="1" t="s">
         <v>154</v>
@@ -16097,7 +16107,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>56</v>
@@ -16112,13 +16122,13 @@
         <v>48</v>
       </c>
       <c r="F335" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="G335" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="G335" s="1" t="s">
+      <c r="H335" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="H335" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="I335" s="1" t="s">
         <v>154</v>
@@ -16135,7 +16145,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>14</v>
@@ -16150,13 +16160,13 @@
         <v>48</v>
       </c>
       <c r="F336" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="G336" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="G336" s="1" t="s">
+      <c r="H336" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>880</v>
       </c>
       <c r="I336" s="1" t="s">
         <v>154</v>
@@ -16173,7 +16183,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>56</v>
@@ -16188,13 +16198,13 @@
         <v>48</v>
       </c>
       <c r="F337" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="G337" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="G337" s="1" t="s">
-        <v>883</v>
-      </c>
       <c r="H337" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I337" s="1" t="s">
         <v>235</v>
@@ -16211,7 +16221,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>56</v>
@@ -16226,13 +16236,13 @@
         <v>76</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G338" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="H338" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="H338" s="1" t="s">
-        <v>886</v>
       </c>
       <c r="I338" s="1" t="s">
         <v>235</v>
@@ -16249,7 +16259,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>14</v>
@@ -16264,13 +16274,13 @@
         <v>48</v>
       </c>
       <c r="F339" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="G339" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="G339" s="1" t="s">
+      <c r="H339" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>890</v>
       </c>
       <c r="I339" s="1" t="s">
         <v>260</v>
@@ -16287,7 +16297,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>14</v>
@@ -16302,13 +16312,13 @@
         <v>48</v>
       </c>
       <c r="F340" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="G340" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="G340" s="1" t="s">
+      <c r="H340" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="H340" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="I340" s="1" t="s">
         <v>260</v>
@@ -16354,7 +16364,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>14</v>
@@ -16369,19 +16379,19 @@
         <v>48</v>
       </c>
       <c r="F342" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="G342" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="G342" s="1" t="s">
+      <c r="H342" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="H342" s="1" t="s">
+      <c r="I342" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J342" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="I342" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="J342" s="1" t="s">
-        <v>899</v>
       </c>
       <c r="K342">
         <v>5</v>
@@ -16392,7 +16402,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>56</v>
@@ -16401,25 +16411,25 @@
         <v>0</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F343" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G343" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="G343" s="1" t="s">
+      <c r="H343" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="H343" s="1" t="s">
-        <v>903</v>
-      </c>
       <c r="I343" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K343">
         <v>15</v>
@@ -16430,7 +16440,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>56</v>
@@ -16445,19 +16455,19 @@
         <v>48</v>
       </c>
       <c r="F344" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="G344" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="G344" s="1" t="s">
+      <c r="H344" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="H344" s="1" t="s">
-        <v>907</v>
-      </c>
       <c r="I344" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K344">
         <v>26</v>
@@ -16468,7 +16478,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>14</v>
@@ -16483,19 +16493,19 @@
         <v>48</v>
       </c>
       <c r="F345" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="G345" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="G345" s="1" t="s">
+      <c r="H345" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="H345" s="1" t="s">
-        <v>911</v>
-      </c>
       <c r="I345" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J345" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K345">
         <v>36</v>
@@ -16506,7 +16516,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>14</v>
@@ -16521,19 +16531,19 @@
         <v>48</v>
       </c>
       <c r="F346" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="G346" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="G346" s="1" t="s">
+      <c r="H346" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="H346" s="1" t="s">
-        <v>915</v>
-      </c>
       <c r="I346" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J346" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K346">
         <v>7</v>
@@ -16544,7 +16554,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>14</v>
@@ -16559,19 +16569,19 @@
         <v>48</v>
       </c>
       <c r="F347" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="G347" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="G347" s="1" t="s">
+      <c r="H347" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="H347" s="1" t="s">
-        <v>919</v>
-      </c>
       <c r="I347" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K347">
         <v>6</v>
@@ -16582,7 +16592,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>37</v>
@@ -16597,19 +16607,19 @@
         <v>48</v>
       </c>
       <c r="F348" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="G348" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="G348" s="1" t="s">
+      <c r="H348" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="H348" s="1" t="s">
-        <v>923</v>
-      </c>
       <c r="I348" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J348" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K348">
         <v>8</v>
@@ -16620,7 +16630,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>14</v>
@@ -16635,19 +16645,19 @@
         <v>48</v>
       </c>
       <c r="F349" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="G349" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="G349" s="1" t="s">
-        <v>926</v>
-      </c>
       <c r="H349" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J349" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K349">
         <v>2</v>
@@ -16658,7 +16668,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>56</v>
@@ -16673,16 +16683,16 @@
         <v>48</v>
       </c>
       <c r="F350" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="G350" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="G350" s="1" t="s">
-        <v>929</v>
-      </c>
       <c r="H350" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J350" s="1" t="s">
         <v>48</v>
@@ -16696,7 +16706,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>37</v>
@@ -16711,16 +16721,16 @@
         <v>48</v>
       </c>
       <c r="F351" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="G351" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="G351" s="1" t="s">
+      <c r="H351" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="H351" s="1" t="s">
-        <v>933</v>
-      </c>
       <c r="I351" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J351" s="1" t="s">
         <v>48</v>
@@ -16734,7 +16744,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>14</v>
@@ -16749,16 +16759,16 @@
         <v>48</v>
       </c>
       <c r="F352" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="G352" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="G352" s="1" t="s">
-        <v>936</v>
-      </c>
       <c r="H352" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J352" s="1" t="s">
         <v>48</v>
@@ -16772,7 +16782,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>37</v>
@@ -16787,16 +16797,16 @@
         <v>48</v>
       </c>
       <c r="F353" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="G353" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="G353" s="1" t="s">
+      <c r="H353" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="H353" s="1" t="s">
-        <v>940</v>
-      </c>
       <c r="I353" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J353" s="1" t="s">
         <v>48</v>
@@ -16810,7 +16820,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>14</v>
@@ -16825,16 +16835,16 @@
         <v>48</v>
       </c>
       <c r="F354" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="G354" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="G354" s="1" t="s">
-        <v>943</v>
-      </c>
       <c r="H354" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J354" s="1" t="s">
         <v>48</v>
@@ -16848,7 +16858,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>37</v>
@@ -16857,22 +16867,22 @@
         <v>0</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F355" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="G355" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="G355" s="1" t="s">
-        <v>946</v>
-      </c>
       <c r="H355" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J355" s="1" t="s">
         <v>48</v>
@@ -16915,7 +16925,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>14</v>
@@ -16930,19 +16940,19 @@
         <v>48</v>
       </c>
       <c r="F357" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="G357" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="G357" s="1" t="s">
+      <c r="H357" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="H357" s="1" t="s">
-        <v>950</v>
-      </c>
       <c r="I357" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J357" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K357">
         <v>4</v>
@@ -16953,7 +16963,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>14</v>
@@ -16968,19 +16978,19 @@
         <v>48</v>
       </c>
       <c r="F358" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="G358" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="G358" s="1" t="s">
-        <v>953</v>
-      </c>
       <c r="H358" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J358" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K358">
         <v>5</v>
@@ -16991,7 +17001,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>14</v>
@@ -17006,19 +17016,19 @@
         <v>48</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G359" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="H359" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="H359" s="1" t="s">
-        <v>955</v>
-      </c>
       <c r="I359" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K359">
         <v>14</v>
@@ -17029,7 +17039,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>14</v>
@@ -17044,19 +17054,19 @@
         <v>48</v>
       </c>
       <c r="F360" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="G360" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="G360" s="1" t="s">
-        <v>958</v>
-      </c>
       <c r="H360" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J360" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K360">
         <v>15</v>
@@ -17067,7 +17077,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>14</v>
@@ -17082,19 +17092,19 @@
         <v>48</v>
       </c>
       <c r="F361" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="G361" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="G361" s="1" t="s">
-        <v>961</v>
-      </c>
       <c r="H361" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K361">
         <v>25</v>
@@ -17105,7 +17115,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>14</v>
@@ -17120,19 +17130,19 @@
         <v>48</v>
       </c>
       <c r="F362" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="G362" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="G362" s="1" t="s">
-        <v>964</v>
-      </c>
       <c r="H362" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K362">
         <v>36</v>
@@ -17143,7 +17153,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>56</v>
@@ -17155,22 +17165,22 @@
         <v>48</v>
       </c>
       <c r="E363" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G363" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="F363" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="G363" s="1" t="s">
-        <v>967</v>
-      </c>
       <c r="H363" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I363" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J363" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K363">
         <v>29</v>
@@ -17181,7 +17191,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>14</v>
@@ -17196,19 +17206,19 @@
         <v>48</v>
       </c>
       <c r="F364" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="G364" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="G364" s="1" t="s">
+      <c r="H364" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="H364" s="1" t="s">
-        <v>971</v>
-      </c>
       <c r="I364" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K364">
         <v>27</v>
@@ -17219,7 +17229,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>56</v>
@@ -17231,22 +17241,22 @@
         <v>48</v>
       </c>
       <c r="E365" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="F365" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="F365" s="1" t="s">
+      <c r="G365" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="G365" s="1" t="s">
-        <v>975</v>
-      </c>
       <c r="H365" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K365">
         <v>56</v>
@@ -17257,7 +17267,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>56</v>
@@ -17269,22 +17279,22 @@
         <v>48</v>
       </c>
       <c r="E366" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G366" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="F366" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="G366" s="1" t="s">
+      <c r="H366" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="H366" s="1" t="s">
-        <v>979</v>
-      </c>
       <c r="I366" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J366" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K366">
         <v>57</v>
@@ -17295,7 +17305,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>56</v>
@@ -17310,16 +17320,16 @@
         <v>48</v>
       </c>
       <c r="F367" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="G367" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="G367" s="1" t="s">
+      <c r="H367" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="H367" s="1" t="s">
-        <v>983</v>
-      </c>
       <c r="I367" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J367" s="1" t="s">
         <v>48</v>
@@ -17333,7 +17343,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>56</v>
@@ -17348,16 +17358,16 @@
         <v>48</v>
       </c>
       <c r="F368" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="G368" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="G368" s="1" t="s">
+      <c r="H368" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="H368" s="1" t="s">
-        <v>987</v>
-      </c>
       <c r="I368" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J368" s="1" t="s">
         <v>48</v>
@@ -17371,7 +17381,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>14</v>
@@ -17386,16 +17396,16 @@
         <v>48</v>
       </c>
       <c r="F369" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="G369" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="G369" s="1" t="s">
+      <c r="H369" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="H369" s="1" t="s">
-        <v>991</v>
-      </c>
       <c r="I369" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J369" s="1" t="s">
         <v>48</v>
@@ -17409,7 +17419,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>56</v>
@@ -17424,16 +17434,16 @@
         <v>48</v>
       </c>
       <c r="F370" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="G370" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="G370" s="1" t="s">
+      <c r="H370" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="H370" s="1" t="s">
-        <v>995</v>
-      </c>
       <c r="I370" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J370" s="1" t="s">
         <v>48</v>
@@ -17476,7 +17486,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>48</v>
@@ -17534,10 +17544,10 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>998</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -17549,7 +17559,7 @@
         <v>48</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G374" s="1" t="s">
         <v>48</v>
@@ -17558,7 +17568,7 @@
         <v>48</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J374" s="1" t="s">
         <v>48</v>
@@ -17572,10 +17582,10 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B375" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>1001</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -17587,7 +17597,7 @@
         <v>48</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G375" s="1" t="s">
         <v>48</v>
@@ -17596,7 +17606,7 @@
         <v>48</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J375" s="1" t="s">
         <v>48</v>
@@ -17610,22 +17620,22 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C376">
         <v>0</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G376" s="1" t="s">
         <v>48</v>
@@ -17634,10 +17644,10 @@
         <v>48</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J376" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K376">
         <v>4</v>
@@ -17648,10 +17658,10 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -17663,7 +17673,7 @@
         <v>48</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G377" s="1" t="s">
         <v>48</v>
@@ -17672,10 +17682,10 @@
         <v>48</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K377">
         <v>59</v>
@@ -17686,10 +17696,10 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -17701,7 +17711,7 @@
         <v>48</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G378" s="1" t="s">
         <v>48</v>
@@ -17710,10 +17720,10 @@
         <v>48</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K378">
         <v>60</v>
@@ -17724,22 +17734,22 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C379">
         <v>0</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G379" s="1" t="s">
         <v>48</v>
@@ -17748,7 +17758,7 @@
         <v>48</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J379" s="1" t="s">
         <v>48</v>
@@ -17762,22 +17772,22 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C380">
         <v>0</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G380" s="1" t="s">
         <v>48</v>
@@ -17786,10 +17796,10 @@
         <v>48</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J380" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K380">
         <v>2</v>
@@ -17800,10 +17810,10 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -17812,10 +17822,10 @@
         <v>48</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G381" s="1" t="s">
         <v>48</v>
@@ -17824,7 +17834,7 @@
         <v>48</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J381" s="1" t="s">
         <v>48</v>
@@ -17838,10 +17848,10 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -17853,7 +17863,7 @@
         <v>48</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G382" s="1" t="s">
         <v>48</v>
@@ -17862,10 +17872,10 @@
         <v>48</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J382" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K382">
         <v>57</v>
@@ -17876,10 +17886,10 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -17891,7 +17901,7 @@
         <v>48</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G383" s="1" t="s">
         <v>48</v>
@@ -17900,7 +17910,7 @@
         <v>48</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J383" s="1" t="s">
         <v>48</v>
@@ -17914,22 +17924,22 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C384">
         <v>0</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G384" s="1" t="s">
         <v>48</v>
@@ -17938,10 +17948,10 @@
         <v>48</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J384" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K384">
         <v>5</v>
@@ -17952,10 +17962,10 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -17967,7 +17977,7 @@
         <v>48</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G385" s="1" t="s">
         <v>48</v>
@@ -17976,10 +17986,10 @@
         <v>48</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K385">
         <v>61</v>
@@ -17990,10 +18000,10 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -18005,7 +18015,7 @@
         <v>48</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G386" s="1" t="s">
         <v>48</v>
@@ -18014,7 +18024,7 @@
         <v>48</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J386" s="1" t="s">
         <v>48</v>
@@ -18028,10 +18038,10 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -18043,7 +18053,7 @@
         <v>48</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G387" s="1" t="s">
         <v>48</v>
@@ -18052,10 +18062,10 @@
         <v>48</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K387">
         <v>58</v>
@@ -18066,10 +18076,10 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -18078,10 +18088,10 @@
         <v>48</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G388" s="1" t="s">
         <v>48</v>
@@ -18090,7 +18100,7 @@
         <v>48</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J388" s="1" t="s">
         <v>48</v>
@@ -18104,10 +18114,10 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -18119,7 +18129,7 @@
         <v>48</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G389" s="1" t="s">
         <v>48</v>
@@ -18128,7 +18138,7 @@
         <v>48</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J389" s="1" t="s">
         <v>48</v>
@@ -18142,22 +18152,22 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C390">
         <v>0</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G390" s="1" t="s">
         <v>48</v>
@@ -18166,10 +18176,10 @@
         <v>48</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J390" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K390">
         <v>3</v>
@@ -18180,10 +18190,10 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -18195,7 +18205,7 @@
         <v>48</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G391" s="1" t="s">
         <v>48</v>
@@ -18204,7 +18214,7 @@
         <v>48</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J391" s="1" t="s">
         <v>48</v>
@@ -18218,10 +18228,10 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -18233,7 +18243,7 @@
         <v>48</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G392" s="1" t="s">
         <v>48</v>
@@ -18242,7 +18252,7 @@
         <v>48</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J392" s="1" t="s">
         <v>48</v>
@@ -18256,10 +18266,10 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -18271,7 +18281,7 @@
         <v>48</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G393" s="1" t="s">
         <v>48</v>
@@ -18280,7 +18290,7 @@
         <v>48</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J393" s="1" t="s">
         <v>48</v>
@@ -18294,10 +18304,10 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -18309,7 +18319,7 @@
         <v>48</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G394" s="1" t="s">
         <v>48</v>
@@ -18318,10 +18328,10 @@
         <v>48</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J394" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K394">
         <v>6</v>
@@ -18332,22 +18342,22 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C395">
         <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G395" s="1" t="s">
         <v>48</v>
@@ -18356,7 +18366,7 @@
         <v>48</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J395" s="1" t="s">
         <v>48</v>
@@ -18370,10 +18380,10 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -18385,7 +18395,7 @@
         <v>48</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G396" s="1" t="s">
         <v>48</v>
@@ -18394,7 +18404,7 @@
         <v>48</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J396" s="1" t="s">
         <v>48</v>
@@ -18408,10 +18418,10 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -18423,7 +18433,7 @@
         <v>48</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G397" s="1" t="s">
         <v>48</v>
@@ -18432,7 +18442,7 @@
         <v>48</v>
       </c>
       <c r="I397" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J397" s="1" t="s">
         <v>48</v>
@@ -18446,22 +18456,22 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C398">
         <v>0</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G398" s="1" t="s">
         <v>48</v>
@@ -18470,10 +18480,10 @@
         <v>48</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J398" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K398">
         <v>34</v>
@@ -18484,10 +18494,10 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -18499,7 +18509,7 @@
         <v>48</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G399" s="1" t="s">
         <v>48</v>
@@ -18508,7 +18518,7 @@
         <v>48</v>
       </c>
       <c r="I399" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J399" s="1" t="s">
         <v>48</v>
@@ -18522,10 +18532,10 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -18537,7 +18547,7 @@
         <v>48</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G400" s="1" t="s">
         <v>48</v>
@@ -18546,10 +18556,10 @@
         <v>48</v>
       </c>
       <c r="I400" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J400" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K400">
         <v>32</v>
@@ -18560,10 +18570,10 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -18575,7 +18585,7 @@
         <v>48</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G401" s="1" t="s">
         <v>48</v>
@@ -18584,10 +18594,10 @@
         <v>48</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J401" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K401">
         <v>33</v>
@@ -18598,10 +18608,10 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -18613,7 +18623,7 @@
         <v>48</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G402" s="1" t="s">
         <v>48</v>
@@ -18622,7 +18632,7 @@
         <v>48</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J402" s="1" t="s">
         <v>48</v>
@@ -18636,10 +18646,10 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -18648,7 +18658,7 @@
         <v>48</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>307</v>
@@ -18660,10 +18670,10 @@
         <v>48</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J403" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K403">
         <v>35</v>
@@ -18674,10 +18684,10 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -18686,7 +18696,7 @@
         <v>48</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>25</v>
@@ -18698,7 +18708,7 @@
         <v>48</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J404" s="1" t="s">
         <v>48</v>
@@ -18712,10 +18722,10 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -18727,7 +18737,7 @@
         <v>48</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G405" s="1" t="s">
         <v>48</v>
@@ -18736,7 +18746,7 @@
         <v>48</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J405" s="1" t="s">
         <v>48</v>
@@ -18750,10 +18760,10 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -18765,7 +18775,7 @@
         <v>48</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G406" s="1" t="s">
         <v>48</v>
@@ -18774,7 +18784,7 @@
         <v>48</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J406" s="1" t="s">
         <v>48</v>
@@ -18788,10 +18798,10 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -18803,7 +18813,7 @@
         <v>48</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G407" s="1" t="s">
         <v>48</v>
@@ -18812,7 +18822,7 @@
         <v>48</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J407" s="1" t="s">
         <v>48</v>
@@ -18826,10 +18836,10 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -18841,7 +18851,7 @@
         <v>48</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G408" s="1" t="s">
         <v>48</v>
@@ -18850,7 +18860,7 @@
         <v>48</v>
       </c>
       <c r="I408" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J408" s="1" t="s">
         <v>48</v>
@@ -18864,10 +18874,10 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -18879,7 +18889,7 @@
         <v>48</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G409" s="1" t="s">
         <v>48</v>
@@ -18888,7 +18898,7 @@
         <v>48</v>
       </c>
       <c r="I409" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J409" s="1" t="s">
         <v>48</v>
@@ -18902,10 +18912,10 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -18917,7 +18927,7 @@
         <v>48</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G410" s="1" t="s">
         <v>48</v>
@@ -18926,7 +18936,7 @@
         <v>48</v>
       </c>
       <c r="I410" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J410" s="1" t="s">
         <v>48</v>
@@ -18940,10 +18950,10 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -18955,7 +18965,7 @@
         <v>48</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G411" s="1" t="s">
         <v>48</v>
@@ -18964,10 +18974,10 @@
         <v>48</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J411" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K411">
         <v>36</v>
@@ -19007,7 +19017,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>14</v>
@@ -19016,13 +19026,13 @@
         <v>0</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="G413" s="1" t="s">
         <v>48</v>
@@ -19045,7 +19055,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>56</v>
@@ -19054,13 +19064,13 @@
         <v>0</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G414" s="1" t="s">
         <v>48</v>
@@ -19112,7 +19122,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>48</v>
@@ -19170,7 +19180,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>14</v>
@@ -19179,16 +19189,16 @@
         <v>0</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E418" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F418" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="F418" s="1" t="s">
+      <c r="G418" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="G418" s="1" t="s">
-        <v>1063</v>
       </c>
       <c r="H418" s="1" t="s">
         <v>4</v>
@@ -19237,22 +19247,22 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B420" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>1065</v>
       </c>
       <c r="C420">
         <v>3</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G420" s="1" t="s">
         <v>48</v>
@@ -19264,7 +19274,7 @@
         <v>293</v>
       </c>
       <c r="J420" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K420">
         <v>25</v>
@@ -19275,22 +19285,22 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C421">
         <v>3</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G421" s="1" t="s">
         <v>48</v>
@@ -19302,7 +19312,7 @@
         <v>293</v>
       </c>
       <c r="J421" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K421">
         <v>27</v>
@@ -19313,22 +19323,22 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C422">
         <v>3</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G422" s="1" t="s">
         <v>48</v>
@@ -19340,7 +19350,7 @@
         <v>293</v>
       </c>
       <c r="J422" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K422">
         <v>29</v>
@@ -19351,22 +19361,22 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C423">
         <v>4</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G423" s="1" t="s">
         <v>48</v>
@@ -19378,7 +19388,7 @@
         <v>293</v>
       </c>
       <c r="J423" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K423">
         <v>31</v>
@@ -19389,22 +19399,22 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C424">
         <v>4</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G424" s="1" t="s">
         <v>48</v>
@@ -19416,7 +19426,7 @@
         <v>293</v>
       </c>
       <c r="J424" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K424">
         <v>32</v>
@@ -19427,22 +19437,22 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C425">
         <v>4</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G425" s="1" t="s">
         <v>48</v>
@@ -19454,7 +19464,7 @@
         <v>293</v>
       </c>
       <c r="J425" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K425">
         <v>33</v>
@@ -19465,22 +19475,22 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C426">
         <v>5</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G426" s="1" t="s">
         <v>48</v>
@@ -19492,7 +19502,7 @@
         <v>293</v>
       </c>
       <c r="J426" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K426">
         <v>34</v>
@@ -19503,22 +19513,22 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C427">
         <v>5</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G427" s="1" t="s">
         <v>48</v>
@@ -19530,7 +19540,7 @@
         <v>293</v>
       </c>
       <c r="J427" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K427">
         <v>35</v>
@@ -19541,22 +19551,22 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C428">
         <v>5</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="G428" s="1" t="s">
         <v>48</v>
@@ -19568,7 +19578,7 @@
         <v>293</v>
       </c>
       <c r="J428" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K428">
         <v>36</v>
@@ -19608,7 +19618,7 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>14</v>
@@ -19617,13 +19627,13 @@
         <v>0</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E430" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F430" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="F430" s="1" t="s">
-        <v>1085</v>
       </c>
       <c r="G430" s="1" t="s">
         <v>48</v>
@@ -19632,7 +19642,7 @@
         <v>4</v>
       </c>
       <c r="I430" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J430" s="1" t="s">
         <v>48</v>
@@ -19675,7 +19685,7 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>14</v>
@@ -19684,13 +19694,13 @@
         <v>3</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E432" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F432" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="F432" s="1" t="s">
-        <v>1088</v>
       </c>
       <c r="G432" s="1" t="s">
         <v>48</v>
@@ -19699,10 +19709,10 @@
         <v>4</v>
       </c>
       <c r="I432" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J432" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="K432">
         <v>2</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDCF3E2-EC3E-48EA-B446-74FCA8C9B7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AE434B-8067-44EF-A87E-CB23E2381F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3935" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="1166">
   <si>
     <t># Name</t>
   </si>
@@ -3338,9 +3338,6 @@
     <t>A=2</t>
   </si>
   <si>
-    <t>A=1,X+2</t>
-  </si>
-  <si>
     <t>A=2,O=1</t>
   </si>
   <si>
@@ -3404,9 +3401,6 @@
     <t>C=1,R=1,$=B</t>
   </si>
   <si>
-    <t>D=2,R=1$=B</t>
-  </si>
-  <si>
     <t>D=2,A=1;L</t>
   </si>
   <si>
@@ -3434,18 +3428,6 @@
     <t>A=1,H,&amp;=H,$=C,&amp;=4,&amp;=L</t>
   </si>
   <si>
-    <t>A=3,I=1,&amp;=H,$=C,$=E,J=1,$=B,&amp;=I,$=C</t>
-  </si>
-  <si>
-    <t>D=3,I=1,&amp;=H,$=C,$=E,Z=0,&amp;=I,$=C</t>
-  </si>
-  <si>
-    <t>D=2,K=1,&amp;=H,$=C,$=E</t>
-  </si>
-  <si>
-    <t>D=4/D=2,K=1,&amp;=H,$=B,$=E</t>
-  </si>
-  <si>
     <t>A=3/A=2,D=1</t>
   </si>
   <si>
@@ -3482,13 +3464,76 @@
     <t>Cast: Deal 2 damage. If you have two or more other prepped spells, deal 1 additional damage.</t>
   </si>
   <si>
-    <t>A=2/I=1,$=C,$=E,C=2,&amp;=I,$=C</t>
-  </si>
-  <si>
-    <t>A=2/K=1,$=C,$=E</t>
-  </si>
-  <si>
-    <t>C=1,K=1,&amp;=H,$=C,$=G</t>
+    <t>D=5,J=1,$=D</t>
+  </si>
+  <si>
+    <t>D=7,&amp;=D;D</t>
+  </si>
+  <si>
+    <t>I=1,$=A,&amp;=C,D=4,&amp;=I</t>
+  </si>
+  <si>
+    <t>D=2,F=3,$=A</t>
+  </si>
+  <si>
+    <t>C=1,Z=0,$=B</t>
+  </si>
+  <si>
+    <t>A=2,J=1,$=B</t>
+  </si>
+  <si>
+    <t>A=2/X,$=C,A=3</t>
+  </si>
+  <si>
+    <t>G=2/L=2,$=A</t>
+  </si>
+  <si>
+    <t>D=2;E</t>
+  </si>
+  <si>
+    <t>D=1,A=1,&amp;=T,%=C;E</t>
+  </si>
+  <si>
+    <t>D=1,F,$=B;E</t>
+  </si>
+  <si>
+    <t>A=1,X,&amp;=H,$=C,A=+2,&amp;=I</t>
+  </si>
+  <si>
+    <t>F=0,$=C/X,$=C,C=1</t>
+  </si>
+  <si>
+    <t>C=1,&amp;=C</t>
+  </si>
+  <si>
+    <t>D=1/J=1,$=B,&amp;=C</t>
+  </si>
+  <si>
+    <t>A=3,I=1,&amp;=H,$=C,$=J,$=E,J=1,$=B,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>D=2,R=1,$=B</t>
+  </si>
+  <si>
+    <t>D=2,K=1,&amp;=H,$=C,$=J,$=E</t>
+  </si>
+  <si>
+    <t>C=1,K=1,&amp;=H,$=C,$=J,$=H</t>
+  </si>
+  <si>
+    <t>D=4/D=2,K=1,&amp;=H,$=B,$=J,$=E</t>
+  </si>
+  <si>
+    <t>D=3,I=1,&amp;=H,$=C,$=J,$=E,Z=0,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>A=2/K=1,$=C,$=J,$=E</t>
+  </si>
+  <si>
+    <t>A=2/I=1,$=C,$=J,$=E,C=2,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>K=1,$=A,$=K,$=I/X,$=C,L=2,$=C</t>
   </si>
 </sst>
 </file>
@@ -3919,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4084,7 +4129,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1132</v>
+        <v>1157</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -4122,7 +4167,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
@@ -4160,7 +4205,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -4236,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -4432,7 +4477,7 @@
         <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>44</v>
@@ -4464,7 +4509,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
@@ -4502,7 +4547,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
@@ -4578,7 +4623,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
@@ -4842,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1122</v>
+        <v>1158</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -5032,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1134</v>
+        <v>1159</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>
@@ -5175,7 +5220,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>48</v>
@@ -5288,7 +5333,9 @@
       <c r="C37">
         <v>8</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>1142</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -5658,7 +5705,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>48</v>
+        <v>1143</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>143</v>
@@ -5696,7 +5743,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -5859,7 +5906,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>48</v>
@@ -5897,7 +5944,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>48</v>
@@ -6009,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>48</v>
@@ -6237,7 +6284,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>48</v>
@@ -6389,7 +6436,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>48</v>
@@ -6465,7 +6512,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1135</v>
+        <v>1161</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -6617,7 +6664,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1133</v>
+        <v>1162</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>48</v>
@@ -6731,7 +6778,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>143</v>
@@ -6874,7 +6921,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1149</v>
+        <v>1163</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>48</v>
@@ -7026,7 +7073,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>246</v>
@@ -7102,7 +7149,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>246</v>
@@ -7245,7 +7292,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1148</v>
+        <v>1164</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>48</v>
@@ -7283,7 +7330,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>48</v>
@@ -7359,7 +7406,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>48</v>
@@ -7435,7 +7482,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>48</v>
@@ -7473,7 +7520,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>48</v>
@@ -7788,7 +7835,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>48</v>
@@ -7864,7 +7911,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>48</v>
@@ -7946,7 +7993,7 @@
         <v>48</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>310</v>
@@ -8016,7 +8063,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>48</v>
+        <v>1144</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>48</v>
@@ -8159,7 +8206,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>48</v>
+        <v>1145</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>48</v>
@@ -8378,7 +8425,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>48</v>
+        <v>1146</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>48</v>
@@ -8445,7 +8492,7 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>48</v>
@@ -8664,7 +8711,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>48</v>
+        <v>1147</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>48</v>
@@ -8702,7 +8749,7 @@
         <v>6</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>48</v>
@@ -10273,7 +10320,7 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>48</v>
+        <v>1148</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>48</v>
@@ -10348,9 +10395,7 @@
       <c r="C175">
         <v>5</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="D175" s="1"/>
       <c r="E175" s="1" t="s">
         <v>48</v>
       </c>
@@ -10682,7 +10727,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>48</v>
+        <v>1165</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>48</v>
@@ -10720,7 +10765,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>48</v>
+        <v>1149</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>48</v>
@@ -10901,7 +10946,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>48</v>
+        <v>1150</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>530</v>
@@ -11044,7 +11089,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>48</v>
+        <v>1151</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>530</v>
@@ -11701,7 +11746,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>48</v>
+        <v>1152</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>530</v>
@@ -12530,7 +12575,7 @@
         <v>4</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>48</v>
@@ -13073,7 +13118,7 @@
         <v>2</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1100</v>
+        <v>1153</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>48</v>
@@ -13111,7 +13156,7 @@
         <v>2</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>48</v>
+        <v>1154</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>48</v>
@@ -14731,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>48</v>
@@ -14767,7 +14812,7 @@
         <v>0</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>48</v>
@@ -14803,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>48</v>
@@ -14992,7 +15037,7 @@
         <v>2</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>767</v>
@@ -15028,7 +15073,7 @@
         <v>3</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>772</v>
@@ -15064,7 +15109,7 @@
         <v>3</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>772</v>
@@ -15100,7 +15145,7 @@
         <v>6</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>772</v>
@@ -15136,7 +15181,7 @@
         <v>6</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>772</v>
@@ -15172,7 +15217,7 @@
         <v>3</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>786</v>
@@ -15208,7 +15253,7 @@
         <v>3</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>786</v>
@@ -15244,7 +15289,7 @@
         <v>6</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>786</v>
@@ -15280,7 +15325,7 @@
         <v>6</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>786</v>
@@ -15745,7 +15790,7 @@
         <v>0</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>48</v>
@@ -16411,7 +16456,7 @@
         <v>0</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1092</v>
+        <v>1155</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>48</v>
@@ -16449,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>48</v>
+        <v>1156</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>48</v>
@@ -17629,7 +17674,7 @@
         <v>0</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>48</v>
@@ -17743,7 +17788,7 @@
         <v>0</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>48</v>
@@ -17933,7 +17978,7 @@
         <v>0</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>48</v>
@@ -18161,7 +18206,7 @@
         <v>0</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>48</v>
@@ -18351,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>48</v>
@@ -18465,7 +18510,7 @@
         <v>0</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>48</v>
@@ -18737,7 +18782,7 @@
         <v>48</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G405" s="1" t="s">
         <v>48</v>
@@ -19189,7 +19234,7 @@
         <v>0</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>1060</v>
@@ -19256,7 +19301,7 @@
         <v>3</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>48</v>
@@ -19294,7 +19339,7 @@
         <v>3</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>48</v>
@@ -19332,7 +19377,7 @@
         <v>3</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>48</v>
@@ -19370,7 +19415,7 @@
         <v>4</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>48</v>
@@ -19408,7 +19453,7 @@
         <v>4</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>48</v>
@@ -19446,7 +19491,7 @@
         <v>4</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>48</v>
@@ -19484,7 +19529,7 @@
         <v>5</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>48</v>
@@ -19522,7 +19567,7 @@
         <v>5</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>48</v>
@@ -19560,7 +19605,7 @@
         <v>5</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>48</v>
@@ -19627,7 +19672,7 @@
         <v>0</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>1083</v>
@@ -19694,7 +19739,7 @@
         <v>3</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>1086</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AE434B-8067-44EF-A87E-CB23E2381F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0679438B-93F4-48B4-B4B3-233F7380EC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="1166">
   <si>
     <t># Name</t>
   </si>
@@ -3383,9 +3383,6 @@
     <t>The next time you focus or open a breach this turn, it costs 3$ less.#OR#Destroy this. Deal 1 damage.</t>
   </si>
   <si>
-    <t>D=3,P,$=A,&amp;=H</t>
-  </si>
-  <si>
     <t>A=1/L=1,$=A</t>
   </si>
   <si>
@@ -3416,9 +3413,6 @@
     <t>D=5,X,&amp;=H,$=C,G=4,&amp;=I,$=C</t>
   </si>
   <si>
-    <t>D=4,M=1,&amp;=H,$=C;D</t>
-  </si>
-  <si>
     <t>D=1/P,$=C,&amp;=W,&amp;=C</t>
   </si>
   <si>
@@ -3437,9 +3431,6 @@
     <t>A=2,N=2,&amp;A=+2</t>
   </si>
   <si>
-    <t>A=2,A=+2,&amp;=T,%=S</t>
-  </si>
-  <si>
     <t>A=2,Q=1,&amp;=H,$=C,A=+1,&amp;=I,$=C</t>
   </si>
   <si>
@@ -3455,9 +3446,6 @@
     <t>D=2,D=+5,&amp;=0-2,$=C</t>
   </si>
   <si>
-    <t>D=3,D=+3,&amp;=+4</t>
-  </si>
-  <si>
     <t>J=2,$=B</t>
   </si>
   <si>
@@ -3470,9 +3458,6 @@
     <t>D=7,&amp;=D;D</t>
   </si>
   <si>
-    <t>I=1,$=A,&amp;=C,D=4,&amp;=I</t>
-  </si>
-  <si>
     <t>D=2,F=3,$=A</t>
   </si>
   <si>
@@ -3497,9 +3482,6 @@
     <t>D=1,F,$=B;E</t>
   </si>
   <si>
-    <t>A=1,X,&amp;=H,$=C,A=+2,&amp;=I</t>
-  </si>
-  <si>
     <t>F=0,$=C/X,$=C,C=1</t>
   </si>
   <si>
@@ -3533,7 +3515,25 @@
     <t>A=2/I=1,$=C,$=J,$=E,C=2,&amp;=I,$=C</t>
   </si>
   <si>
-    <t>K=1,$=A,$=K,$=I/X,$=C,L=2,$=C</t>
+    <t>D=3,P,$=A,&amp;=H,$=C</t>
+  </si>
+  <si>
+    <t>D=3,D=+3,&amp;=+4,$=C</t>
+  </si>
+  <si>
+    <t>A=2,A=+1,&amp;=T,%=S</t>
+  </si>
+  <si>
+    <t>A=1,X,&amp;=H,$=C,A=+2,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>K=1,$=C,$=K,$=I/X,$=C,L=2,$=C</t>
+  </si>
+  <si>
+    <t>D=4,K=1,&amp;=H,$=C,$=J,$=F;D</t>
+  </si>
+  <si>
+    <t>I=1,$==A,$=J,$=E,&amp;=C,D=4,&amp;=I,$=A</t>
   </si>
 </sst>
 </file>
@@ -3964,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4129,7 +4129,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -4167,7 +4167,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
@@ -4205,7 +4205,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -4281,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1133</v>
+        <v>1161</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -4509,7 +4509,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
@@ -4547,7 +4547,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
@@ -4623,7 +4623,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
@@ -4887,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -5077,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>
@@ -5220,7 +5220,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>48</v>
@@ -5334,7 +5334,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>48</v>
@@ -5705,7 +5705,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>143</v>
@@ -5743,7 +5743,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1115</v>
+        <v>1159</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -5906,7 +5906,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>48</v>
@@ -5944,7 +5944,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>48</v>
@@ -6056,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>48</v>
@@ -6284,7 +6284,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>48</v>
@@ -6436,7 +6436,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>48</v>
@@ -6512,7 +6512,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -6664,7 +6664,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>48</v>
@@ -6778,7 +6778,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1126</v>
+        <v>1164</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>143</v>
@@ -6815,9 +6815,7 @@
       <c r="C77">
         <v>7</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
         <v>226</v>
       </c>
@@ -6921,7 +6919,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>48</v>
@@ -7073,7 +7071,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>246</v>
@@ -7149,7 +7147,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>246</v>
@@ -7292,7 +7290,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>48</v>
@@ -7330,7 +7328,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>48</v>
@@ -7406,7 +7404,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>48</v>
@@ -7482,7 +7480,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>48</v>
@@ -7520,7 +7518,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1139</v>
+        <v>1160</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>48</v>
@@ -7911,7 +7909,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>48</v>
@@ -7993,7 +7991,7 @@
         <v>48</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>310</v>
@@ -8063,7 +8061,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1144</v>
+        <v>1165</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>48</v>
@@ -8206,7 +8204,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>48</v>
@@ -8425,7 +8423,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>48</v>
@@ -8711,7 +8709,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>48</v>
@@ -10320,7 +10318,7 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>48</v>
@@ -10727,7 +10725,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>48</v>
@@ -10765,7 +10763,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>48</v>
@@ -10946,7 +10944,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>530</v>
@@ -11089,7 +11087,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>530</v>
@@ -11746,7 +11744,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>530</v>
@@ -13118,7 +13116,7 @@
         <v>2</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1153</v>
+        <v>1162</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>48</v>
@@ -13156,7 +13154,7 @@
         <v>2</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>48</v>
@@ -15790,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>48</v>
@@ -16456,7 +16454,7 @@
         <v>0</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>48</v>
@@ -16494,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>48</v>
@@ -17674,7 +17672,7 @@
         <v>0</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>48</v>
@@ -17788,7 +17786,7 @@
         <v>0</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>48</v>
@@ -17978,7 +17976,7 @@
         <v>0</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>48</v>
@@ -18206,7 +18204,7 @@
         <v>0</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>48</v>
@@ -18396,7 +18394,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>48</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0679438B-93F4-48B4-B4B3-233F7380EC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7928D18-F637-41B7-BEE1-270E6EE92200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -3506,9 +3506,6 @@
     <t>D=4/D=2,K=1,&amp;=H,$=B,$=J,$=E</t>
   </si>
   <si>
-    <t>D=3,I=1,&amp;=H,$=C,$=J,$=E,Z=0,&amp;=I,$=C</t>
-  </si>
-  <si>
     <t>A=2/K=1,$=C,$=J,$=E</t>
   </si>
   <si>
@@ -3534,6 +3531,9 @@
   </si>
   <si>
     <t>I=1,$==A,$=J,$=E,&amp;=C,D=4,&amp;=I,$=A</t>
+  </si>
+  <si>
+    <t>D=3,I=1,&amp;=H,$=C,$=J,$=E,Z=0,$=A,&amp;=I,$=C</t>
   </si>
 </sst>
 </file>
@@ -3964,8 +3964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4281,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -5743,7 +5743,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -6664,7 +6664,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1156</v>
+        <v>1165</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>48</v>
@@ -6778,7 +6778,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>143</v>
@@ -6919,7 +6919,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>48</v>
@@ -7290,7 +7290,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>48</v>
@@ -7518,7 +7518,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>48</v>
@@ -8061,7 +8061,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>48</v>
@@ -10725,7 +10725,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>48</v>
@@ -13116,7 +13116,7 @@
         <v>2</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>48</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7928D18-F637-41B7-BEE1-270E6EE92200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973DB092-0F0D-4BB3-87FF-116B87348D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="1170">
   <si>
     <t># Name</t>
   </si>
@@ -3422,9 +3422,6 @@
     <t>A=1,H,&amp;=H,$=C,&amp;=4,&amp;=L</t>
   </si>
   <si>
-    <t>A=3/A=2,D=1</t>
-  </si>
-  <si>
     <t>C=1/C=-2,&amp;=H,$=C,A=5,&amp;=I,$=C</t>
   </si>
   <si>
@@ -3534,6 +3531,21 @@
   </si>
   <si>
     <t>D=3,I=1,&amp;=H,$=C,$=J,$=E,Z=0,$=A,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>D=3,M=!1,&amp;C=1;L</t>
+  </si>
+  <si>
+    <t>A=3/A=2,&amp;&amp;D=1</t>
+  </si>
+  <si>
+    <t>D=3;C</t>
+  </si>
+  <si>
+    <t>D=3;P;&amp;=C;?=D:1</t>
+  </si>
+  <si>
+    <t>X,$=C,K=0-2,$=C,$=J,$=G,J=1,$=C</t>
   </si>
 </sst>
 </file>
@@ -3964,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4129,7 +4141,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -4205,7 +4217,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -4281,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -4433,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>1169</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>48</v>
@@ -4470,9 +4482,7 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
@@ -4623,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
@@ -4849,7 +4859,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>1167</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>76</v>
@@ -4887,7 +4897,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -4925,7 +4935,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>1168</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>83</v>
@@ -5077,7 +5087,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>
@@ -5220,7 +5230,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>48</v>
@@ -5334,7 +5344,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>48</v>
@@ -5705,7 +5715,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>143</v>
@@ -5743,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -5944,7 +5954,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>48</v>
@@ -6056,7 +6066,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>48</v>
@@ -6512,7 +6522,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -6664,7 +6674,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>48</v>
@@ -6778,7 +6788,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>143</v>
@@ -6919,7 +6929,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>48</v>
@@ -7147,7 +7157,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>246</v>
@@ -7185,7 +7195,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>48</v>
+        <v>1165</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>246</v>
@@ -7290,7 +7300,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>48</v>
@@ -7328,7 +7338,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1128</v>
+        <v>1166</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>48</v>
@@ -7404,7 +7414,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>48</v>
@@ -7480,7 +7490,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>48</v>
@@ -7518,7 +7528,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>48</v>
@@ -7909,7 +7919,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>48</v>
@@ -7991,7 +8001,7 @@
         <v>48</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>310</v>
@@ -8061,7 +8071,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>48</v>
@@ -8204,7 +8214,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>48</v>
@@ -8423,7 +8433,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>48</v>
@@ -8709,7 +8719,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>48</v>
@@ -10318,7 +10328,7 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>48</v>
@@ -10725,7 +10735,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>48</v>
@@ -10763,7 +10773,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>48</v>
@@ -10944,7 +10954,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>530</v>
@@ -11087,7 +11097,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>530</v>
@@ -11744,7 +11754,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>530</v>
@@ -13116,7 +13126,7 @@
         <v>2</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>48</v>
@@ -13154,7 +13164,7 @@
         <v>2</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>48</v>
@@ -16454,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>48</v>
@@ -16492,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>48</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973DB092-0F0D-4BB3-87FF-116B87348D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AD458C-3B4A-49FF-BD58-6A59495EC520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3999" uniqueCount="1170">
   <si>
     <t># Name</t>
   </si>
@@ -3401,15 +3401,9 @@
     <t>D=2,A=1;L</t>
   </si>
   <si>
-    <t>F,$=A/X,$=C,G=3</t>
-  </si>
-  <si>
     <t>A=2/F=0,$=C</t>
   </si>
   <si>
-    <t>F,$=A/X,$=C,L=3,$=C</t>
-  </si>
-  <si>
     <t>D=5,X,&amp;=H,$=C,G=4,&amp;=I,$=C</t>
   </si>
   <si>
@@ -3464,9 +3458,6 @@
     <t>A=2,J=1,$=B</t>
   </si>
   <si>
-    <t>A=2/X,$=C,A=3</t>
-  </si>
-  <si>
     <t>G=2/L=2,$=A</t>
   </si>
   <si>
@@ -3479,9 +3470,6 @@
     <t>D=1,F,$=B;E</t>
   </si>
   <si>
-    <t>F=0,$=C/X,$=C,C=1</t>
-  </si>
-  <si>
     <t>C=1,&amp;=C</t>
   </si>
   <si>
@@ -3521,9 +3509,6 @@
     <t>A=1,X,&amp;=H,$=C,A=+2,&amp;=I,$=C</t>
   </si>
   <si>
-    <t>K=1,$=C,$=K,$=I/X,$=C,L=2,$=C</t>
-  </si>
-  <si>
     <t>D=4,K=1,&amp;=H,$=C,$=J,$=F;D</t>
   </si>
   <si>
@@ -3545,7 +3530,22 @@
     <t>D=3;P;&amp;=C;?=D:1</t>
   </si>
   <si>
-    <t>X,$=C,K=0-2,$=C,$=J,$=G,J=1,$=C</t>
+    <t>X,K=0-2,$=C,$=J,$=G,J=1,$=C</t>
+  </si>
+  <si>
+    <t>F,$=A/X,G=3</t>
+  </si>
+  <si>
+    <t>F,$=A/X,L=3,$=C</t>
+  </si>
+  <si>
+    <t>A=2/X,A=3</t>
+  </si>
+  <si>
+    <t>K=1,$=C,$=K,$=I/X,L=2,$=C</t>
+  </si>
+  <si>
+    <t>F=0,$=C/X,C=1</t>
   </si>
 </sst>
 </file>
@@ -3976,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4141,7 +4141,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -4217,7 +4217,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -4293,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -4445,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>48</v>
@@ -4519,7 +4519,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1121</v>
+        <v>1165</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
@@ -4859,7 +4859,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>76</v>
@@ -4897,7 +4897,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -4935,7 +4935,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>83</v>
@@ -5087,7 +5087,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>
@@ -5230,7 +5230,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>48</v>
@@ -5344,7 +5344,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>48</v>
@@ -5715,7 +5715,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>143</v>
@@ -5753,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -5916,7 +5916,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>48</v>
@@ -5954,7 +5954,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>48</v>
@@ -6066,7 +6066,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>48</v>
@@ -6294,7 +6294,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1123</v>
+        <v>1166</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>48</v>
@@ -6446,7 +6446,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>48</v>
@@ -6522,7 +6522,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -6674,7 +6674,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>48</v>
@@ -6788,7 +6788,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>143</v>
@@ -6929,7 +6929,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>48</v>
@@ -7157,7 +7157,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>246</v>
@@ -7195,7 +7195,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>246</v>
@@ -7300,7 +7300,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>48</v>
@@ -7338,7 +7338,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>48</v>
@@ -7414,7 +7414,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>48</v>
@@ -7490,7 +7490,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>48</v>
@@ -7528,7 +7528,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>48</v>
@@ -7919,7 +7919,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>48</v>
@@ -8001,7 +8001,7 @@
         <v>48</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>310</v>
@@ -8071,7 +8071,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>48</v>
@@ -8214,7 +8214,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>48</v>
@@ -8433,7 +8433,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>48</v>
@@ -8719,7 +8719,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>48</v>
@@ -10328,7 +10328,7 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1142</v>
+        <v>1167</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>48</v>
@@ -10735,7 +10735,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>48</v>
@@ -10773,7 +10773,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>48</v>
@@ -10954,7 +10954,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>530</v>
@@ -11097,7 +11097,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>530</v>
@@ -11754,7 +11754,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>530</v>
@@ -13126,7 +13126,7 @@
         <v>2</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>48</v>
@@ -13164,7 +13164,7 @@
         <v>2</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1147</v>
+        <v>1169</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>48</v>
@@ -15798,7 +15798,7 @@
         <v>0</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>48</v>
@@ -16464,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>48</v>
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>48</v>
@@ -17796,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>48</v>
@@ -18404,7 +18404,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>48</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AD458C-3B4A-49FF-BD58-6A59495EC520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22E8468-97E9-4191-804C-2B74B73FCC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3999" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="1171">
   <si>
     <t># Name</t>
   </si>
@@ -3546,6 +3546,9 @@
   </si>
   <si>
     <t>F=0,$=C/X,C=1</t>
+  </si>
+  <si>
+    <t>D=2,N=2,&amp;D=+2;L</t>
   </si>
 </sst>
 </file>
@@ -3976,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12840,7 +12843,7 @@
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>48</v>
+        <v>1170</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>246</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22E8468-97E9-4191-804C-2B74B73FCC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759C01F-156E-4DE7-A69D-3223A21C5427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4070" uniqueCount="1171">
   <si>
     <t># Name</t>
   </si>
@@ -1655,9 +1655,6 @@
     <t>"I can see the stars. They will fuel us." - Sahala</t>
   </si>
   <si>
-    <t>Reverating Shock</t>
-  </si>
-  <si>
     <t>Cast: Deal 1 damage. Gain 1$ that can only be used to gain cards.</t>
   </si>
   <si>
@@ -3314,15 +3311,9 @@
     <t>D=1,A=1</t>
   </si>
   <si>
-    <t>C=1</t>
-  </si>
-  <si>
     <t>D=3</t>
   </si>
   <si>
-    <t>C=3</t>
-  </si>
-  <si>
     <t>D=2</t>
   </si>
   <si>
@@ -3341,9 +3332,6 @@
     <t>A=2,O=1</t>
   </si>
   <si>
-    <t>C=2,S</t>
-  </si>
-  <si>
     <t>A=2/S</t>
   </si>
   <si>
@@ -3374,9 +3362,6 @@
     <t>;N=Fountain of Souls</t>
   </si>
   <si>
-    <t>A=1/C=1</t>
-  </si>
-  <si>
     <t>Gain 1$. You may cast any player's prepped spell. That spell deals 1 less damage, minimum 1.</t>
   </si>
   <si>
@@ -3392,12 +3377,6 @@
     <t>D=1/F,$=A,&amp;=C</t>
   </si>
   <si>
-    <t>A=3,N=1,&amp;R=1,$=B</t>
-  </si>
-  <si>
-    <t>C=1,R=1,$=B</t>
-  </si>
-  <si>
     <t>D=2,A=1;L</t>
   </si>
   <si>
@@ -3416,9 +3395,6 @@
     <t>A=1,H,&amp;=H,$=C,&amp;=4,&amp;=L</t>
   </si>
   <si>
-    <t>C=1/C=-2,&amp;=H,$=C,A=5,&amp;=I,$=C</t>
-  </si>
-  <si>
     <t>A=2,N=2,&amp;A=+2</t>
   </si>
   <si>
@@ -3452,9 +3428,6 @@
     <t>D=2,F=3,$=A</t>
   </si>
   <si>
-    <t>C=1,Z=0,$=B</t>
-  </si>
-  <si>
     <t>A=2,J=1,$=B</t>
   </si>
   <si>
@@ -3470,24 +3443,15 @@
     <t>D=1,F,$=B;E</t>
   </si>
   <si>
-    <t>C=1,&amp;=C</t>
-  </si>
-  <si>
     <t>D=1/J=1,$=B,&amp;=C</t>
   </si>
   <si>
     <t>A=3,I=1,&amp;=H,$=C,$=J,$=E,J=1,$=B,&amp;=I,$=C</t>
   </si>
   <si>
-    <t>D=2,R=1,$=B</t>
-  </si>
-  <si>
     <t>D=2,K=1,&amp;=H,$=C,$=J,$=E</t>
   </si>
   <si>
-    <t>C=1,K=1,&amp;=H,$=C,$=J,$=H</t>
-  </si>
-  <si>
     <t>D=4/D=2,K=1,&amp;=H,$=B,$=J,$=E</t>
   </si>
   <si>
@@ -3518,9 +3482,6 @@
     <t>D=3,I=1,&amp;=H,$=C,$=J,$=E,Z=0,$=A,&amp;=I,$=C</t>
   </si>
   <si>
-    <t>D=3,M=!1,&amp;C=1;L</t>
-  </si>
-  <si>
     <t>A=3/A=2,&amp;&amp;D=1</t>
   </si>
   <si>
@@ -3545,10 +3506,49 @@
     <t>K=1,$=C,$=K,$=I/X,L=2,$=C</t>
   </si>
   <si>
-    <t>F=0,$=C/X,C=1</t>
-  </si>
-  <si>
     <t>D=2,N=2,&amp;D=+2;L</t>
+  </si>
+  <si>
+    <t>D=3,M=!1,&amp;C=1,$=C;L</t>
+  </si>
+  <si>
+    <t>C=1,$=C,C=1,$=B</t>
+  </si>
+  <si>
+    <t>C=1,$=C,K=1,&amp;=H,$=C,$=J,$=H</t>
+  </si>
+  <si>
+    <t>C=1,$=C/C=-2,&amp;=H,$=C,A=5,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>C=1,$=C,Z=0,$=B</t>
+  </si>
+  <si>
+    <t>C=2,$=C,S</t>
+  </si>
+  <si>
+    <t>C=3,$=C</t>
+  </si>
+  <si>
+    <t>C=1,$=C</t>
+  </si>
+  <si>
+    <t>F=0,$=C/X,C=1,$=C</t>
+  </si>
+  <si>
+    <t>C=1,&amp;=C,$=C</t>
+  </si>
+  <si>
+    <t>A=1/C=1,$=C</t>
+  </si>
+  <si>
+    <t>D=2,C=1,$=B</t>
+  </si>
+  <si>
+    <t>A=3,N=1,&amp;C=1,$=B</t>
+  </si>
+  <si>
+    <t>Reverberating Shock</t>
   </si>
 </sst>
 </file>
@@ -3979,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="D243" sqref="D243"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -4182,7 +4182,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1118</v>
+        <v>1169</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
@@ -4220,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -4258,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>48</v>
@@ -4296,7 +4296,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -4448,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>48</v>
@@ -4490,7 +4490,7 @@
         <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>44</v>
@@ -4522,7 +4522,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1165</v>
+        <v>1152</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
@@ -4560,7 +4560,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1119</v>
+        <v>1158</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
@@ -4636,7 +4636,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
@@ -4862,7 +4862,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>76</v>
@@ -4900,7 +4900,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1147</v>
+        <v>1168</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -4938,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1163</v>
+        <v>1150</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>83</v>
@@ -5090,7 +5090,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>
@@ -5233,7 +5233,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>48</v>
@@ -5347,7 +5347,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>48</v>
@@ -5718,7 +5718,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>143</v>
@@ -5756,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -5919,7 +5919,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>48</v>
@@ -5957,7 +5957,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>48</v>
@@ -6069,7 +6069,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>48</v>
@@ -6297,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1166</v>
+        <v>1153</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>48</v>
@@ -6449,7 +6449,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>48</v>
@@ -6525,7 +6525,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -6677,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>48</v>
@@ -6791,7 +6791,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>143</v>
@@ -6932,7 +6932,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>48</v>
@@ -7084,7 +7084,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>246</v>
@@ -7160,7 +7160,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>246</v>
@@ -7198,7 +7198,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>246</v>
@@ -7303,7 +7303,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>48</v>
@@ -7341,7 +7341,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1161</v>
+        <v>1148</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>48</v>
@@ -7417,7 +7417,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1126</v>
+        <v>1160</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>48</v>
@@ -7493,7 +7493,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>48</v>
@@ -7531,7 +7531,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>48</v>
@@ -7770,7 +7770,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>48</v>
@@ -7846,7 +7846,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>48</v>
@@ -7922,7 +7922,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>48</v>
@@ -7960,7 +7960,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>48</v>
@@ -8004,7 +8004,7 @@
         <v>48</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>310</v>
@@ -8036,7 +8036,7 @@
         <v>4</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>48</v>
@@ -8074,7 +8074,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>48</v>
@@ -8217,7 +8217,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>48</v>
@@ -8436,7 +8436,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1138</v>
+        <v>1161</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>48</v>
@@ -8503,7 +8503,7 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>48</v>
@@ -8722,7 +8722,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>48</v>
@@ -8760,7 +8760,7 @@
         <v>6</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1101</v>
+        <v>1162</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>48</v>
@@ -9712,7 +9712,7 @@
         <v>7</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1094</v>
+        <v>1163</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>48</v>
@@ -10331,7 +10331,7 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1167</v>
+        <v>1154</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>48</v>
@@ -10738,7 +10738,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>48</v>
@@ -10776,7 +10776,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>48</v>
@@ -10957,7 +10957,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>530</v>
@@ -11091,7 +11091,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>539</v>
+        <v>1170</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>56</v>
@@ -11100,16 +11100,16 @@
         <v>4</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F194" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>48</v>
@@ -11158,7 +11158,7 @@
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>14</v>
@@ -11173,10 +11173,10 @@
         <v>48</v>
       </c>
       <c r="F196" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>48</v>
@@ -11185,7 +11185,7 @@
         <v>483</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K196">
         <v>18</v>
@@ -11196,7 +11196,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>37</v>
@@ -11211,10 +11211,10 @@
         <v>48</v>
       </c>
       <c r="F197" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>48</v>
@@ -11223,7 +11223,7 @@
         <v>483</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K197">
         <v>25</v>
@@ -11234,7 +11234,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>56</v>
@@ -11249,10 +11249,10 @@
         <v>48</v>
       </c>
       <c r="F198" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>48</v>
@@ -11261,7 +11261,7 @@
         <v>483</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K198">
         <v>30</v>
@@ -11301,7 +11301,7 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>14</v>
@@ -11316,16 +11316,16 @@
         <v>48</v>
       </c>
       <c r="F200" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="H200" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I200" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>48</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>37</v>
@@ -11354,16 +11354,16 @@
         <v>48</v>
       </c>
       <c r="F201" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G201" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="G201" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="H201" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>48</v>
@@ -11377,7 +11377,7 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>37</v>
@@ -11392,16 +11392,16 @@
         <v>48</v>
       </c>
       <c r="F202" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="H202" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>48</v>
@@ -11415,7 +11415,7 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>37</v>
@@ -11430,16 +11430,16 @@
         <v>48</v>
       </c>
       <c r="F203" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>564</v>
-      </c>
       <c r="H203" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>48</v>
@@ -11453,7 +11453,7 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>56</v>
@@ -11468,16 +11468,16 @@
         <v>48</v>
       </c>
       <c r="F204" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G204" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="H204" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>48</v>
@@ -11491,7 +11491,7 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>56</v>
@@ -11506,16 +11506,16 @@
         <v>48</v>
       </c>
       <c r="F205" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="H205" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>48</v>
@@ -11529,7 +11529,7 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>56</v>
@@ -11541,19 +11541,19 @@
         <v>48</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>48</v>
@@ -11596,7 +11596,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>14</v>
@@ -11611,16 +11611,16 @@
         <v>48</v>
       </c>
       <c r="F208" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G208" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="H208" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I208" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>48</v>
@@ -11634,7 +11634,7 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>14</v>
@@ -11649,16 +11649,16 @@
         <v>48</v>
       </c>
       <c r="F209" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G209" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>580</v>
-      </c>
       <c r="H209" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>48</v>
@@ -11672,7 +11672,7 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>37</v>
@@ -11687,16 +11687,16 @@
         <v>48</v>
       </c>
       <c r="F210" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G210" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="H210" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>48</v>
@@ -11710,7 +11710,7 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>37</v>
@@ -11725,16 +11725,16 @@
         <v>48</v>
       </c>
       <c r="F211" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="G211" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="H211" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>48</v>
@@ -11748,7 +11748,7 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>56</v>
@@ -11757,22 +11757,22 @@
         <v>5</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F212" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="H212" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>48</v>
@@ -11786,7 +11786,7 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>56</v>
@@ -11801,16 +11801,16 @@
         <v>48</v>
       </c>
       <c r="F213" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="G213" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>592</v>
-      </c>
       <c r="H213" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>48</v>
@@ -11824,7 +11824,7 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>56</v>
@@ -11839,16 +11839,16 @@
         <v>48</v>
       </c>
       <c r="F214" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="G214" s="1" t="s">
-        <v>595</v>
-      </c>
       <c r="H214" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>48</v>
@@ -11862,7 +11862,7 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>56</v>
@@ -11877,16 +11877,16 @@
         <v>48</v>
       </c>
       <c r="F215" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="G215" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="H215" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>48</v>
@@ -11900,7 +11900,7 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>56</v>
@@ -11915,16 +11915,16 @@
         <v>48</v>
       </c>
       <c r="F216" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G216" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="G216" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="H216" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>48</v>
@@ -11938,7 +11938,7 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>56</v>
@@ -11950,19 +11950,19 @@
         <v>48</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>48</v>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>14</v>
@@ -12020,16 +12020,16 @@
         <v>48</v>
       </c>
       <c r="F219" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G219" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="H219" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I219" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I219" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>48</v>
@@ -12043,7 +12043,7 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>37</v>
@@ -12058,16 +12058,16 @@
         <v>48</v>
       </c>
       <c r="F220" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G220" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G220" s="1" t="s">
-        <v>611</v>
-      </c>
       <c r="H220" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>48</v>
@@ -12081,7 +12081,7 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>56</v>
@@ -12096,16 +12096,16 @@
         <v>530</v>
       </c>
       <c r="F221" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G221" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="G221" s="1" t="s">
-        <v>614</v>
-      </c>
       <c r="H221" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>48</v>
@@ -12148,7 +12148,7 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>48</v>
@@ -12206,7 +12206,7 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>14</v>
@@ -12221,16 +12221,16 @@
         <v>48</v>
       </c>
       <c r="F225" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I225" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="G225" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I225" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>484</v>
@@ -12244,7 +12244,7 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>14</v>
@@ -12259,7 +12259,7 @@
         <v>48</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>48</v>
@@ -12268,7 +12268,7 @@
         <v>48</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>484</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>14</v>
@@ -12297,7 +12297,7 @@
         <v>48</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>48</v>
@@ -12306,7 +12306,7 @@
         <v>48</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>484</v>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>37</v>
@@ -12335,7 +12335,7 @@
         <v>48</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>48</v>
@@ -12344,7 +12344,7 @@
         <v>48</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>484</v>
@@ -12358,7 +12358,7 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>37</v>
@@ -12373,7 +12373,7 @@
         <v>48</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>48</v>
@@ -12382,7 +12382,7 @@
         <v>48</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>484</v>
@@ -12396,7 +12396,7 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>56</v>
@@ -12411,7 +12411,7 @@
         <v>48</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>48</v>
@@ -12420,7 +12420,7 @@
         <v>48</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>484</v>
@@ -12434,7 +12434,7 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>56</v>
@@ -12449,7 +12449,7 @@
         <v>48</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>48</v>
@@ -12458,7 +12458,7 @@
         <v>48</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>484</v>
@@ -12472,7 +12472,7 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>56</v>
@@ -12487,7 +12487,7 @@
         <v>48</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>48</v>
@@ -12496,7 +12496,7 @@
         <v>48</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>484</v>
@@ -12510,7 +12510,7 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>56</v>
@@ -12525,16 +12525,16 @@
         <v>48</v>
       </c>
       <c r="F233" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G233" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="G233" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="H233" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>484</v>
@@ -12577,7 +12577,7 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>14</v>
@@ -12586,13 +12586,13 @@
         <v>4</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>48</v>
@@ -12601,7 +12601,7 @@
         <v>48</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>512</v>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>14</v>
@@ -12627,7 +12627,7 @@
         <v>48</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>152</v>
@@ -12639,7 +12639,7 @@
         <v>48</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>512</v>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>37</v>
@@ -12668,7 +12668,7 @@
         <v>48</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>48</v>
@@ -12677,7 +12677,7 @@
         <v>48</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>512</v>
@@ -12691,7 +12691,7 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>56</v>
@@ -12706,7 +12706,7 @@
         <v>48</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>48</v>
@@ -12715,7 +12715,7 @@
         <v>48</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>512</v>
@@ -12758,7 +12758,7 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>14</v>
@@ -12773,7 +12773,7 @@
         <v>48</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>48</v>
@@ -12782,7 +12782,7 @@
         <v>48</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>525</v>
@@ -12796,7 +12796,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>37</v>
@@ -12811,7 +12811,7 @@
         <v>48</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>48</v>
@@ -12820,7 +12820,7 @@
         <v>48</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>525</v>
@@ -12834,7 +12834,7 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>56</v>
@@ -12843,13 +12843,13 @@
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>246</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>48</v>
@@ -12858,7 +12858,7 @@
         <v>48</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>525</v>
@@ -12872,7 +12872,7 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>56</v>
@@ -12887,7 +12887,7 @@
         <v>48</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>48</v>
@@ -12896,7 +12896,7 @@
         <v>48</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>525</v>
@@ -12939,7 +12939,7 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>14</v>
@@ -12954,7 +12954,7 @@
         <v>48</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>48</v>
@@ -12963,7 +12963,7 @@
         <v>48</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>535</v>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>37</v>
@@ -12992,7 +12992,7 @@
         <v>48</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>48</v>
@@ -13001,7 +13001,7 @@
         <v>48</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>535</v>
@@ -13015,7 +13015,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>37</v>
@@ -13030,7 +13030,7 @@
         <v>48</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>48</v>
@@ -13039,7 +13039,7 @@
         <v>48</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>535</v>
@@ -13053,7 +13053,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>56</v>
@@ -13068,16 +13068,16 @@
         <v>48</v>
       </c>
       <c r="F248" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G248" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="G248" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="H248" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>535</v>
@@ -13120,7 +13120,7 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>14</v>
@@ -13129,13 +13129,13 @@
         <v>2</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>48</v>
@@ -13144,10 +13144,10 @@
         <v>48</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K250">
         <v>2</v>
@@ -13158,7 +13158,7 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>37</v>
@@ -13167,13 +13167,13 @@
         <v>2</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>48</v>
@@ -13182,10 +13182,10 @@
         <v>48</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K251">
         <v>9</v>
@@ -13196,7 +13196,7 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>37</v>
@@ -13211,7 +13211,7 @@
         <v>48</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>48</v>
@@ -13220,10 +13220,10 @@
         <v>48</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K252">
         <v>14</v>
@@ -13234,7 +13234,7 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>37</v>
@@ -13243,13 +13243,13 @@
         <v>6</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>48</v>
@@ -13258,10 +13258,10 @@
         <v>48</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K253">
         <v>19</v>
@@ -13272,7 +13272,7 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>56</v>
@@ -13287,7 +13287,7 @@
         <v>48</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>48</v>
@@ -13296,10 +13296,10 @@
         <v>48</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K254">
         <v>24</v>
@@ -13310,7 +13310,7 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>56</v>
@@ -13322,7 +13322,7 @@
         <v>48</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>61</v>
@@ -13334,10 +13334,10 @@
         <v>48</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K255">
         <v>29</v>
@@ -13348,7 +13348,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>56</v>
@@ -13363,7 +13363,7 @@
         <v>48</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>48</v>
@@ -13372,10 +13372,10 @@
         <v>48</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K256">
         <v>34</v>
@@ -13386,7 +13386,7 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>56</v>
@@ -13398,22 +13398,22 @@
         <v>48</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K257">
         <v>39</v>
@@ -13424,7 +13424,7 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>56</v>
@@ -13439,7 +13439,7 @@
         <v>48</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>48</v>
@@ -13448,10 +13448,10 @@
         <v>48</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K258">
         <v>44</v>
@@ -13462,7 +13462,7 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>56</v>
@@ -13477,19 +13477,19 @@
         <v>48</v>
       </c>
       <c r="F259" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G259" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="G259" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="H259" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K259">
         <v>49</v>
@@ -13529,7 +13529,7 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>14</v>
@@ -13544,16 +13544,16 @@
         <v>48</v>
       </c>
       <c r="F261" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I261" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="G261" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I261" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>48</v>
@@ -13567,7 +13567,7 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>14</v>
@@ -13582,7 +13582,7 @@
         <v>48</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>48</v>
@@ -13591,7 +13591,7 @@
         <v>48</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>48</v>
@@ -13605,7 +13605,7 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>37</v>
@@ -13617,11 +13617,11 @@
         <v>48</v>
       </c>
       <c r="E263" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F263" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="F263" s="1" t="s">
-        <v>690</v>
-      </c>
       <c r="G263" s="1" t="s">
         <v>48</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>48</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>48</v>
@@ -13643,7 +13643,7 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>37</v>
@@ -13658,7 +13658,7 @@
         <v>48</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>48</v>
@@ -13667,7 +13667,7 @@
         <v>48</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>48</v>
@@ -13681,7 +13681,7 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>37</v>
@@ -13696,7 +13696,7 @@
         <v>48</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>48</v>
@@ -13705,7 +13705,7 @@
         <v>48</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>48</v>
@@ -13719,7 +13719,7 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>56</v>
@@ -13734,7 +13734,7 @@
         <v>48</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>48</v>
@@ -13743,7 +13743,7 @@
         <v>48</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>48</v>
@@ -13757,7 +13757,7 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>56</v>
@@ -13772,7 +13772,7 @@
         <v>48</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>48</v>
@@ -13781,7 +13781,7 @@
         <v>48</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>48</v>
@@ -13795,7 +13795,7 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>56</v>
@@ -13807,7 +13807,7 @@
         <v>48</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>77</v>
@@ -13819,7 +13819,7 @@
         <v>48</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>48</v>
@@ -13833,7 +13833,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>56</v>
@@ -13845,7 +13845,7 @@
         <v>48</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>452</v>
@@ -13857,7 +13857,7 @@
         <v>48</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>48</v>
@@ -13871,7 +13871,7 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>56</v>
@@ -13886,7 +13886,7 @@
         <v>48</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>48</v>
@@ -13895,7 +13895,7 @@
         <v>48</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>48</v>
@@ -13938,7 +13938,7 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>37</v>
@@ -13953,16 +13953,16 @@
         <v>48</v>
       </c>
       <c r="F272" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I272" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="G272" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>48</v>
@@ -13976,7 +13976,7 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>56</v>
@@ -13991,7 +13991,7 @@
         <v>48</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>48</v>
@@ -14000,7 +14000,7 @@
         <v>48</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>48</v>
@@ -14014,7 +14014,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>56</v>
@@ -14029,7 +14029,7 @@
         <v>48</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>48</v>
@@ -14038,7 +14038,7 @@
         <v>48</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>48</v>
@@ -14081,7 +14081,7 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>48</v>
@@ -14139,7 +14139,7 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>56</v>
@@ -14154,16 +14154,16 @@
         <v>48</v>
       </c>
       <c r="F278" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I278" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="G278" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H278" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I278" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>48</v>
@@ -14177,7 +14177,7 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>56</v>
@@ -14192,16 +14192,16 @@
         <v>48</v>
       </c>
       <c r="F279" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I279" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I279" s="1" t="s">
-        <v>718</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>48</v>
@@ -14215,7 +14215,7 @@
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>56</v>
@@ -14230,7 +14230,7 @@
         <v>48</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>48</v>
@@ -14239,7 +14239,7 @@
         <v>48</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>48</v>
@@ -14253,7 +14253,7 @@
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>56</v>
@@ -14268,16 +14268,16 @@
         <v>48</v>
       </c>
       <c r="F281" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G281" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="G281" s="1" t="s">
-        <v>723</v>
-      </c>
       <c r="H281" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>48</v>
@@ -14291,7 +14291,7 @@
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>14</v>
@@ -14306,16 +14306,16 @@
         <v>48</v>
       </c>
       <c r="F282" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="G282" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="G282" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="H282" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>48</v>
@@ -14358,7 +14358,7 @@
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>14</v>
@@ -14373,16 +14373,16 @@
         <v>48</v>
       </c>
       <c r="F284" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G284" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="G284" s="1" t="s">
+      <c r="H284" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I284" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="H284" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I284" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>48</v>
@@ -14396,7 +14396,7 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>37</v>
@@ -14411,16 +14411,16 @@
         <v>48</v>
       </c>
       <c r="F285" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G285" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="G285" s="1" t="s">
-        <v>733</v>
-      </c>
       <c r="H285" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>48</v>
@@ -14434,7 +14434,7 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>37</v>
@@ -14449,16 +14449,16 @@
         <v>48</v>
       </c>
       <c r="F286" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G286" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G286" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="H286" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>48</v>
@@ -14472,7 +14472,7 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>56</v>
@@ -14487,16 +14487,16 @@
         <v>48</v>
       </c>
       <c r="F287" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="G287" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="G287" s="1" t="s">
-        <v>739</v>
-      </c>
       <c r="H287" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>48</v>
@@ -14510,7 +14510,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>56</v>
@@ -14525,16 +14525,16 @@
         <v>143</v>
       </c>
       <c r="F288" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G288" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G288" s="1" t="s">
-        <v>742</v>
-      </c>
       <c r="H288" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>48</v>
@@ -14577,7 +14577,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>14</v>
@@ -14592,16 +14592,16 @@
         <v>48</v>
       </c>
       <c r="F290" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I290" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="G290" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I290" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>48</v>
@@ -14615,7 +14615,7 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>56</v>
@@ -14627,7 +14627,7 @@
         <v>48</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>77</v>
@@ -14639,7 +14639,7 @@
         <v>48</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>48</v>
@@ -14653,7 +14653,7 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>37</v>
@@ -14668,7 +14668,7 @@
         <v>48</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>48</v>
@@ -14677,7 +14677,7 @@
         <v>48</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>48</v>
@@ -14720,7 +14720,7 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>48</v>
@@ -14778,7 +14778,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>14</v>
@@ -14787,23 +14787,23 @@
         <v>0</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F296" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G296" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K296">
         <v>33</v>
@@ -14814,7 +14814,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>37</v>
@@ -14823,23 +14823,23 @@
         <v>0</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H297" s="1"/>
       <c r="I297" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J297" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K297">
         <v>38</v>
@@ -14850,7 +14850,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>56</v>
@@ -14859,23 +14859,23 @@
         <v>0</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H298" s="1"/>
       <c r="I298" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K298">
         <v>40</v>
@@ -14913,7 +14913,7 @@
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>48</v>
@@ -14967,7 +14967,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>14</v>
@@ -14976,23 +14976,23 @@
         <v>0</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H302" s="1"/>
       <c r="I302" s="1" t="s">
         <v>483</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K302">
         <v>9</v>
@@ -15003,7 +15003,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>56</v>
@@ -15012,23 +15012,23 @@
         <v>0</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>307</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H303" s="1"/>
       <c r="I303" s="1" t="s">
         <v>483</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K303">
         <v>14</v>
@@ -15039,7 +15039,7 @@
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>56</v>
@@ -15048,20 +15048,20 @@
         <v>2</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E304" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="F304" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="F304" s="1" t="s">
+      <c r="G304" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="G304" s="1" t="s">
-        <v>769</v>
       </c>
       <c r="H304" s="1"/>
       <c r="I304" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>48</v>
@@ -15075,7 +15075,7 @@
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>37</v>
@@ -15084,20 +15084,20 @@
         <v>3</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E305" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F305" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="F305" s="1" t="s">
+      <c r="G305" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="G305" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="H305" s="1"/>
       <c r="I305" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>48</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>37</v>
@@ -15120,20 +15120,20 @@
         <v>3</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F306" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="G306" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="G306" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="H306" s="1"/>
       <c r="I306" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J306" s="1" t="s">
         <v>48</v>
@@ -15147,7 +15147,7 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>37</v>
@@ -15156,20 +15156,20 @@
         <v>6</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F307" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="G307" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="G307" s="1" t="s">
-        <v>781</v>
       </c>
       <c r="H307" s="1"/>
       <c r="I307" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>48</v>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>37</v>
@@ -15192,20 +15192,20 @@
         <v>6</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F308" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="G308" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="G308" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="H308" s="1"/>
       <c r="I308" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>48</v>
@@ -15219,7 +15219,7 @@
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>56</v>
@@ -15228,23 +15228,23 @@
         <v>3</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E309" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F309" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="F309" s="1" t="s">
+      <c r="G309" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="G309" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="H309" s="1"/>
       <c r="I309" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K309">
         <v>3</v>
@@ -15255,7 +15255,7 @@
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>56</v>
@@ -15264,20 +15264,20 @@
         <v>3</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F310" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G310" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="G310" s="1" t="s">
-        <v>792</v>
       </c>
       <c r="H310" s="1"/>
       <c r="I310" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>48</v>
@@ -15291,7 +15291,7 @@
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>56</v>
@@ -15300,20 +15300,20 @@
         <v>6</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F311" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="G311" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="G311" s="1" t="s">
-        <v>795</v>
       </c>
       <c r="H311" s="1"/>
       <c r="I311" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>48</v>
@@ -15327,7 +15327,7 @@
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>56</v>
@@ -15336,20 +15336,20 @@
         <v>6</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F312" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G312" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>798</v>
       </c>
       <c r="H312" s="1"/>
       <c r="I312" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>48</v>
@@ -15392,7 +15392,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>48</v>
@@ -15450,7 +15450,7 @@
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>14</v>
@@ -15465,13 +15465,13 @@
         <v>48</v>
       </c>
       <c r="F316" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G316" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="G316" s="1" t="s">
+      <c r="H316" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="H316" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="I316" s="1" t="s">
         <v>17</v>
@@ -15488,7 +15488,7 @@
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>56</v>
@@ -15503,13 +15503,13 @@
         <v>48</v>
       </c>
       <c r="F317" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="G317" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="G317" s="1" t="s">
+      <c r="H317" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="H317" s="1" t="s">
-        <v>807</v>
       </c>
       <c r="I317" s="1" t="s">
         <v>17</v>
@@ -15526,7 +15526,7 @@
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>14</v>
@@ -15541,13 +15541,13 @@
         <v>48</v>
       </c>
       <c r="F318" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G318" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="G318" s="1" t="s">
+      <c r="H318" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="H318" s="1" t="s">
-        <v>811</v>
       </c>
       <c r="I318" s="1" t="s">
         <v>17</v>
@@ -15564,7 +15564,7 @@
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>56</v>
@@ -15579,13 +15579,13 @@
         <v>48</v>
       </c>
       <c r="F319" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="G319" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="G319" s="1" t="s">
+      <c r="H319" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="H319" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="I319" s="1" t="s">
         <v>17</v>
@@ -15602,7 +15602,7 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>14</v>
@@ -15617,13 +15617,13 @@
         <v>48</v>
       </c>
       <c r="F320" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G320" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="G320" s="1" t="s">
+      <c r="H320" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="H320" s="1" t="s">
-        <v>819</v>
       </c>
       <c r="I320" s="1" t="s">
         <v>17</v>
@@ -15640,7 +15640,7 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>14</v>
@@ -15655,13 +15655,13 @@
         <v>48</v>
       </c>
       <c r="F321" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="G321" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="G321" s="1" t="s">
+      <c r="H321" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="H321" s="1" t="s">
-        <v>823</v>
       </c>
       <c r="I321" s="1" t="s">
         <v>17</v>
@@ -15678,7 +15678,7 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>14</v>
@@ -15693,13 +15693,13 @@
         <v>48</v>
       </c>
       <c r="F322" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G322" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="G322" s="1" t="s">
+      <c r="H322" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="H322" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="I322" s="1" t="s">
         <v>17</v>
@@ -15716,7 +15716,7 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>14</v>
@@ -15731,13 +15731,13 @@
         <v>48</v>
       </c>
       <c r="F323" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G323" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="G323" s="1" t="s">
+      <c r="H323" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="I323" s="1" t="s">
         <v>17</v>
@@ -15754,7 +15754,7 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>56</v>
@@ -15769,13 +15769,13 @@
         <v>48</v>
       </c>
       <c r="F324" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="G324" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="G324" s="1" t="s">
+      <c r="H324" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="H324" s="1" t="s">
-        <v>835</v>
       </c>
       <c r="I324" s="1" t="s">
         <v>127</v>
@@ -15792,7 +15792,7 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>56</v>
@@ -15801,19 +15801,19 @@
         <v>0</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F325" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G325" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="G325" s="1" t="s">
+      <c r="H325" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="H325" s="1" t="s">
-        <v>839</v>
       </c>
       <c r="I325" s="1" t="s">
         <v>127</v>
@@ -15830,7 +15830,7 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>14</v>
@@ -15845,13 +15845,13 @@
         <v>48</v>
       </c>
       <c r="F326" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="G326" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="G326" s="1" t="s">
+      <c r="H326" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="H326" s="1" t="s">
-        <v>843</v>
       </c>
       <c r="I326" s="1" t="s">
         <v>127</v>
@@ -15868,7 +15868,7 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>56</v>
@@ -15880,16 +15880,16 @@
         <v>48</v>
       </c>
       <c r="E327" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F327" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="F327" s="1" t="s">
+      <c r="G327" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="G327" s="1" t="s">
+      <c r="H327" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="H327" s="1" t="s">
-        <v>848</v>
       </c>
       <c r="I327" s="1" t="s">
         <v>104</v>
@@ -15935,7 +15935,7 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>14</v>
@@ -15950,13 +15950,13 @@
         <v>48</v>
       </c>
       <c r="F329" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G329" s="1" t="s">
-        <v>851</v>
-      </c>
       <c r="H329" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I329" s="1" t="s">
         <v>154</v>
@@ -15973,7 +15973,7 @@
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>14</v>
@@ -15988,13 +15988,13 @@
         <v>48</v>
       </c>
       <c r="F330" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G330" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="G330" s="1" t="s">
+      <c r="H330" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="H330" s="1" t="s">
-        <v>855</v>
       </c>
       <c r="I330" s="1" t="s">
         <v>154</v>
@@ -16011,7 +16011,7 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>56</v>
@@ -16026,13 +16026,13 @@
         <v>48</v>
       </c>
       <c r="F331" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G331" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="G331" s="1" t="s">
+      <c r="H331" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="H331" s="1" t="s">
-        <v>859</v>
       </c>
       <c r="I331" s="1" t="s">
         <v>154</v>
@@ -16049,7 +16049,7 @@
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>56</v>
@@ -16061,16 +16061,16 @@
         <v>48</v>
       </c>
       <c r="E332" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G332" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="F332" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="G332" s="1" t="s">
+      <c r="H332" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="H332" s="1" t="s">
-        <v>863</v>
       </c>
       <c r="I332" s="1" t="s">
         <v>154</v>
@@ -16087,7 +16087,7 @@
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>14</v>
@@ -16102,13 +16102,13 @@
         <v>48</v>
       </c>
       <c r="F333" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="G333" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="G333" s="1" t="s">
+      <c r="H333" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>867</v>
       </c>
       <c r="I333" s="1" t="s">
         <v>154</v>
@@ -16125,7 +16125,7 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>14</v>
@@ -16140,13 +16140,13 @@
         <v>48</v>
       </c>
       <c r="F334" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="G334" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="G334" s="1" t="s">
+      <c r="H334" s="1" t="s">
         <v>870</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>871</v>
       </c>
       <c r="I334" s="1" t="s">
         <v>154</v>
@@ -16163,7 +16163,7 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>56</v>
@@ -16178,13 +16178,13 @@
         <v>48</v>
       </c>
       <c r="F335" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="G335" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="G335" s="1" t="s">
+      <c r="H335" s="1" t="s">
         <v>874</v>
-      </c>
-      <c r="H335" s="1" t="s">
-        <v>875</v>
       </c>
       <c r="I335" s="1" t="s">
         <v>154</v>
@@ -16201,7 +16201,7 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>14</v>
@@ -16216,13 +16216,13 @@
         <v>48</v>
       </c>
       <c r="F336" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="G336" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="G336" s="1" t="s">
+      <c r="H336" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>879</v>
       </c>
       <c r="I336" s="1" t="s">
         <v>154</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>56</v>
@@ -16254,13 +16254,13 @@
         <v>48</v>
       </c>
       <c r="F337" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="G337" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="G337" s="1" t="s">
-        <v>882</v>
-      </c>
       <c r="H337" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I337" s="1" t="s">
         <v>235</v>
@@ -16277,7 +16277,7 @@
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>56</v>
@@ -16292,13 +16292,13 @@
         <v>76</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G338" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="H338" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="H338" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="I338" s="1" t="s">
         <v>235</v>
@@ -16315,7 +16315,7 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>14</v>
@@ -16330,13 +16330,13 @@
         <v>48</v>
       </c>
       <c r="F339" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="G339" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="G339" s="1" t="s">
+      <c r="H339" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="I339" s="1" t="s">
         <v>260</v>
@@ -16353,7 +16353,7 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>14</v>
@@ -16368,13 +16368,13 @@
         <v>48</v>
       </c>
       <c r="F340" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="G340" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="G340" s="1" t="s">
+      <c r="H340" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="H340" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="I340" s="1" t="s">
         <v>260</v>
@@ -16420,7 +16420,7 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>14</v>
@@ -16435,19 +16435,19 @@
         <v>48</v>
       </c>
       <c r="F342" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="G342" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="G342" s="1" t="s">
+      <c r="H342" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="H342" s="1" t="s">
-        <v>897</v>
       </c>
       <c r="I342" s="1" t="s">
         <v>483</v>
       </c>
       <c r="J342" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K342">
         <v>5</v>
@@ -16458,7 +16458,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>56</v>
@@ -16467,25 +16467,25 @@
         <v>0</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1144</v>
+        <v>1166</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F343" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="G343" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="G343" s="1" t="s">
+      <c r="H343" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="H343" s="1" t="s">
-        <v>902</v>
       </c>
       <c r="I343" s="1" t="s">
         <v>483</v>
       </c>
       <c r="J343" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K343">
         <v>15</v>
@@ -16496,7 +16496,7 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>56</v>
@@ -16505,25 +16505,25 @@
         <v>0</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F344" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="G344" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="G344" s="1" t="s">
+      <c r="H344" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="H344" s="1" t="s">
-        <v>906</v>
       </c>
       <c r="I344" s="1" t="s">
         <v>483</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K344">
         <v>26</v>
@@ -16534,7 +16534,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>14</v>
@@ -16549,19 +16549,19 @@
         <v>48</v>
       </c>
       <c r="F345" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="G345" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="G345" s="1" t="s">
+      <c r="H345" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="H345" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="I345" s="1" t="s">
         <v>483</v>
       </c>
       <c r="J345" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K345">
         <v>36</v>
@@ -16572,7 +16572,7 @@
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>14</v>
@@ -16587,13 +16587,13 @@
         <v>48</v>
       </c>
       <c r="F346" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="G346" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="G346" s="1" t="s">
+      <c r="H346" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>914</v>
       </c>
       <c r="I346" s="1" t="s">
         <v>483</v>
@@ -16610,7 +16610,7 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>14</v>
@@ -16625,13 +16625,13 @@
         <v>48</v>
       </c>
       <c r="F347" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G347" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="G347" s="1" t="s">
+      <c r="H347" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="H347" s="1" t="s">
-        <v>918</v>
       </c>
       <c r="I347" s="1" t="s">
         <v>483</v>
@@ -16648,7 +16648,7 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>37</v>
@@ -16663,13 +16663,13 @@
         <v>48</v>
       </c>
       <c r="F348" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="G348" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="G348" s="1" t="s">
+      <c r="H348" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="H348" s="1" t="s">
-        <v>922</v>
       </c>
       <c r="I348" s="1" t="s">
         <v>483</v>
@@ -16686,7 +16686,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>14</v>
@@ -16701,19 +16701,19 @@
         <v>48</v>
       </c>
       <c r="F349" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="G349" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="G349" s="1" t="s">
-        <v>925</v>
-      </c>
       <c r="H349" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I349" s="1" t="s">
         <v>483</v>
       </c>
       <c r="J349" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K349">
         <v>2</v>
@@ -16724,7 +16724,7 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>56</v>
@@ -16739,16 +16739,16 @@
         <v>48</v>
       </c>
       <c r="F350" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="G350" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="G350" s="1" t="s">
-        <v>928</v>
-      </c>
       <c r="H350" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J350" s="1" t="s">
         <v>48</v>
@@ -16762,7 +16762,7 @@
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>37</v>
@@ -16777,16 +16777,16 @@
         <v>48</v>
       </c>
       <c r="F351" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="G351" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="G351" s="1" t="s">
+      <c r="H351" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="H351" s="1" t="s">
-        <v>932</v>
-      </c>
       <c r="I351" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J351" s="1" t="s">
         <v>48</v>
@@ -16800,7 +16800,7 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>14</v>
@@ -16815,16 +16815,16 @@
         <v>48</v>
       </c>
       <c r="F352" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="G352" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="G352" s="1" t="s">
-        <v>935</v>
-      </c>
       <c r="H352" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J352" s="1" t="s">
         <v>48</v>
@@ -16838,7 +16838,7 @@
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>37</v>
@@ -16853,16 +16853,16 @@
         <v>48</v>
       </c>
       <c r="F353" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="G353" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="G353" s="1" t="s">
+      <c r="H353" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="H353" s="1" t="s">
-        <v>939</v>
-      </c>
       <c r="I353" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J353" s="1" t="s">
         <v>48</v>
@@ -16876,7 +16876,7 @@
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>14</v>
@@ -16891,16 +16891,16 @@
         <v>48</v>
       </c>
       <c r="F354" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="G354" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="G354" s="1" t="s">
-        <v>942</v>
-      </c>
       <c r="H354" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J354" s="1" t="s">
         <v>48</v>
@@ -16914,7 +16914,7 @@
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>37</v>
@@ -16923,22 +16923,22 @@
         <v>0</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1092</v>
+        <v>1164</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F355" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="G355" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="G355" s="1" t="s">
-        <v>945</v>
-      </c>
       <c r="H355" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J355" s="1" t="s">
         <v>48</v>
@@ -16981,7 +16981,7 @@
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>14</v>
@@ -16996,19 +16996,19 @@
         <v>48</v>
       </c>
       <c r="F357" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="G357" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="G357" s="1" t="s">
+      <c r="H357" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="H357" s="1" t="s">
-        <v>949</v>
-      </c>
       <c r="I357" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J357" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K357">
         <v>4</v>
@@ -17019,7 +17019,7 @@
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>14</v>
@@ -17034,19 +17034,19 @@
         <v>48</v>
       </c>
       <c r="F358" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="G358" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="G358" s="1" t="s">
-        <v>952</v>
-      </c>
       <c r="H358" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J358" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K358">
         <v>5</v>
@@ -17057,7 +17057,7 @@
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>14</v>
@@ -17072,19 +17072,19 @@
         <v>48</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G359" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="H359" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="H359" s="1" t="s">
-        <v>954</v>
-      </c>
       <c r="I359" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K359">
         <v>14</v>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>14</v>
@@ -17110,19 +17110,19 @@
         <v>48</v>
       </c>
       <c r="F360" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="G360" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="G360" s="1" t="s">
-        <v>957</v>
-      </c>
       <c r="H360" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J360" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K360">
         <v>15</v>
@@ -17133,7 +17133,7 @@
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>14</v>
@@ -17148,19 +17148,19 @@
         <v>48</v>
       </c>
       <c r="F361" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="G361" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="G361" s="1" t="s">
-        <v>960</v>
-      </c>
       <c r="H361" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K361">
         <v>25</v>
@@ -17171,7 +17171,7 @@
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>14</v>
@@ -17186,19 +17186,19 @@
         <v>48</v>
       </c>
       <c r="F362" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="G362" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="G362" s="1" t="s">
-        <v>963</v>
-      </c>
       <c r="H362" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K362">
         <v>36</v>
@@ -17209,7 +17209,7 @@
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>56</v>
@@ -17221,19 +17221,19 @@
         <v>48</v>
       </c>
       <c r="E363" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G363" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="F363" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="G363" s="1" t="s">
-        <v>966</v>
-      </c>
       <c r="H363" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="I363" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J363" s="1" t="s">
         <v>525</v>
@@ -17247,7 +17247,7 @@
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>14</v>
@@ -17262,16 +17262,16 @@
         <v>48</v>
       </c>
       <c r="F364" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="G364" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="G364" s="1" t="s">
+      <c r="H364" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="H364" s="1" t="s">
-        <v>970</v>
-      </c>
       <c r="I364" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J364" s="1" t="s">
         <v>535</v>
@@ -17285,7 +17285,7 @@
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>56</v>
@@ -17297,22 +17297,22 @@
         <v>48</v>
       </c>
       <c r="E365" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="F365" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="F365" s="1" t="s">
+      <c r="G365" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="G365" s="1" t="s">
-        <v>974</v>
-      </c>
       <c r="H365" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J365" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K365">
         <v>56</v>
@@ -17323,7 +17323,7 @@
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>56</v>
@@ -17335,22 +17335,22 @@
         <v>48</v>
       </c>
       <c r="E366" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="G366" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="F366" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="G366" s="1" t="s">
+      <c r="H366" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="H366" s="1" t="s">
-        <v>978</v>
-      </c>
       <c r="I366" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J366" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K366">
         <v>57</v>
@@ -17361,7 +17361,7 @@
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>56</v>
@@ -17376,16 +17376,16 @@
         <v>48</v>
       </c>
       <c r="F367" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="G367" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="G367" s="1" t="s">
+      <c r="H367" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="H367" s="1" t="s">
-        <v>982</v>
-      </c>
       <c r="I367" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J367" s="1" t="s">
         <v>48</v>
@@ -17399,7 +17399,7 @@
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>56</v>
@@ -17414,16 +17414,16 @@
         <v>48</v>
       </c>
       <c r="F368" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="G368" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="G368" s="1" t="s">
+      <c r="H368" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="H368" s="1" t="s">
-        <v>986</v>
-      </c>
       <c r="I368" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J368" s="1" t="s">
         <v>48</v>
@@ -17437,7 +17437,7 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>14</v>
@@ -17452,16 +17452,16 @@
         <v>48</v>
       </c>
       <c r="F369" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="G369" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="G369" s="1" t="s">
+      <c r="H369" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="H369" s="1" t="s">
-        <v>990</v>
-      </c>
       <c r="I369" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J369" s="1" t="s">
         <v>48</v>
@@ -17475,7 +17475,7 @@
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>56</v>
@@ -17490,16 +17490,16 @@
         <v>48</v>
       </c>
       <c r="F370" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="G370" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="G370" s="1" t="s">
+      <c r="H370" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="H370" s="1" t="s">
-        <v>994</v>
-      </c>
       <c r="I370" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J370" s="1" t="s">
         <v>48</v>
@@ -17542,7 +17542,7 @@
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>48</v>
@@ -17600,10 +17600,10 @@
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="C374">
         <v>0</v>
@@ -17615,7 +17615,7 @@
         <v>48</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G374" s="1" t="s">
         <v>48</v>
@@ -17624,7 +17624,7 @@
         <v>48</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J374" s="1" t="s">
         <v>48</v>
@@ -17638,10 +17638,10 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B375" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>1000</v>
       </c>
       <c r="C375">
         <v>0</v>
@@ -17653,7 +17653,7 @@
         <v>48</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G375" s="1" t="s">
         <v>48</v>
@@ -17662,7 +17662,7 @@
         <v>48</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J375" s="1" t="s">
         <v>48</v>
@@ -17676,22 +17676,22 @@
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C376">
         <v>0</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G376" s="1" t="s">
         <v>48</v>
@@ -17714,10 +17714,10 @@
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -17729,7 +17729,7 @@
         <v>48</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G377" s="1" t="s">
         <v>48</v>
@@ -17741,7 +17741,7 @@
         <v>483</v>
       </c>
       <c r="J377" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K377">
         <v>59</v>
@@ -17752,10 +17752,10 @@
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C378">
         <v>0</v>
@@ -17767,7 +17767,7 @@
         <v>48</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G378" s="1" t="s">
         <v>48</v>
@@ -17779,7 +17779,7 @@
         <v>483</v>
       </c>
       <c r="J378" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K378">
         <v>60</v>
@@ -17790,22 +17790,22 @@
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C379">
         <v>0</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G379" s="1" t="s">
         <v>48</v>
@@ -17814,7 +17814,7 @@
         <v>48</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J379" s="1" t="s">
         <v>48</v>
@@ -17828,22 +17828,22 @@
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C380">
         <v>0</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G380" s="1" t="s">
         <v>48</v>
@@ -17866,10 +17866,10 @@
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C381">
         <v>0</v>
@@ -17878,10 +17878,10 @@
         <v>48</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G381" s="1" t="s">
         <v>48</v>
@@ -17890,7 +17890,7 @@
         <v>48</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J381" s="1" t="s">
         <v>48</v>
@@ -17904,10 +17904,10 @@
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C382">
         <v>0</v>
@@ -17919,7 +17919,7 @@
         <v>48</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G382" s="1" t="s">
         <v>48</v>
@@ -17931,7 +17931,7 @@
         <v>483</v>
       </c>
       <c r="J382" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K382">
         <v>57</v>
@@ -17942,10 +17942,10 @@
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -17957,7 +17957,7 @@
         <v>48</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G383" s="1" t="s">
         <v>48</v>
@@ -17966,7 +17966,7 @@
         <v>48</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J383" s="1" t="s">
         <v>48</v>
@@ -17980,22 +17980,22 @@
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C384">
         <v>0</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G384" s="1" t="s">
         <v>48</v>
@@ -18018,10 +18018,10 @@
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -18033,7 +18033,7 @@
         <v>48</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G385" s="1" t="s">
         <v>48</v>
@@ -18045,7 +18045,7 @@
         <v>483</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K385">
         <v>61</v>
@@ -18056,10 +18056,10 @@
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C386">
         <v>0</v>
@@ -18071,7 +18071,7 @@
         <v>48</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G386" s="1" t="s">
         <v>48</v>
@@ -18080,7 +18080,7 @@
         <v>48</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J386" s="1" t="s">
         <v>48</v>
@@ -18094,10 +18094,10 @@
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C387">
         <v>0</v>
@@ -18109,7 +18109,7 @@
         <v>48</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G387" s="1" t="s">
         <v>48</v>
@@ -18121,7 +18121,7 @@
         <v>483</v>
       </c>
       <c r="J387" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K387">
         <v>58</v>
@@ -18132,10 +18132,10 @@
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C388">
         <v>0</v>
@@ -18144,10 +18144,10 @@
         <v>48</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G388" s="1" t="s">
         <v>48</v>
@@ -18156,7 +18156,7 @@
         <v>48</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J388" s="1" t="s">
         <v>48</v>
@@ -18170,10 +18170,10 @@
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -18185,7 +18185,7 @@
         <v>48</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G389" s="1" t="s">
         <v>48</v>
@@ -18194,7 +18194,7 @@
         <v>48</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J389" s="1" t="s">
         <v>48</v>
@@ -18208,22 +18208,22 @@
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C390">
         <v>0</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G390" s="1" t="s">
         <v>48</v>
@@ -18246,10 +18246,10 @@
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C391">
         <v>0</v>
@@ -18261,7 +18261,7 @@
         <v>48</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G391" s="1" t="s">
         <v>48</v>
@@ -18270,7 +18270,7 @@
         <v>48</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J391" s="1" t="s">
         <v>48</v>
@@ -18284,10 +18284,10 @@
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C392">
         <v>0</v>
@@ -18299,7 +18299,7 @@
         <v>48</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G392" s="1" t="s">
         <v>48</v>
@@ -18308,7 +18308,7 @@
         <v>48</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J392" s="1" t="s">
         <v>48</v>
@@ -18322,10 +18322,10 @@
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -18337,7 +18337,7 @@
         <v>48</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G393" s="1" t="s">
         <v>48</v>
@@ -18346,7 +18346,7 @@
         <v>48</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J393" s="1" t="s">
         <v>48</v>
@@ -18360,10 +18360,10 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C394">
         <v>0</v>
@@ -18375,7 +18375,7 @@
         <v>48</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G394" s="1" t="s">
         <v>48</v>
@@ -18398,22 +18398,22 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C395">
         <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G395" s="1" t="s">
         <v>48</v>
@@ -18422,7 +18422,7 @@
         <v>48</v>
       </c>
       <c r="I395" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J395" s="1" t="s">
         <v>48</v>
@@ -18436,10 +18436,10 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C396">
         <v>0</v>
@@ -18451,7 +18451,7 @@
         <v>48</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G396" s="1" t="s">
         <v>48</v>
@@ -18460,7 +18460,7 @@
         <v>48</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J396" s="1" t="s">
         <v>48</v>
@@ -18474,10 +18474,10 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -18489,7 +18489,7 @@
         <v>48</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G397" s="1" t="s">
         <v>48</v>
@@ -18498,7 +18498,7 @@
         <v>48</v>
       </c>
       <c r="I397" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J397" s="1" t="s">
         <v>48</v>
@@ -18512,22 +18512,22 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C398">
         <v>0</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1112</v>
+        <v>1167</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G398" s="1" t="s">
         <v>48</v>
@@ -18536,7 +18536,7 @@
         <v>48</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J398" s="1" t="s">
         <v>512</v>
@@ -18550,10 +18550,10 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C399">
         <v>0</v>
@@ -18565,7 +18565,7 @@
         <v>48</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G399" s="1" t="s">
         <v>48</v>
@@ -18574,7 +18574,7 @@
         <v>48</v>
       </c>
       <c r="I399" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J399" s="1" t="s">
         <v>48</v>
@@ -18588,10 +18588,10 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C400">
         <v>0</v>
@@ -18603,7 +18603,7 @@
         <v>48</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G400" s="1" t="s">
         <v>48</v>
@@ -18612,7 +18612,7 @@
         <v>48</v>
       </c>
       <c r="I400" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J400" s="1" t="s">
         <v>512</v>
@@ -18626,10 +18626,10 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -18641,7 +18641,7 @@
         <v>48</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G401" s="1" t="s">
         <v>48</v>
@@ -18650,7 +18650,7 @@
         <v>48</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J401" s="1" t="s">
         <v>512</v>
@@ -18664,10 +18664,10 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C402">
         <v>0</v>
@@ -18679,7 +18679,7 @@
         <v>48</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G402" s="1" t="s">
         <v>48</v>
@@ -18688,7 +18688,7 @@
         <v>48</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J402" s="1" t="s">
         <v>48</v>
@@ -18702,10 +18702,10 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C403">
         <v>0</v>
@@ -18714,7 +18714,7 @@
         <v>48</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>307</v>
@@ -18726,7 +18726,7 @@
         <v>48</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J403" s="1" t="s">
         <v>512</v>
@@ -18740,10 +18740,10 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C404">
         <v>0</v>
@@ -18752,7 +18752,7 @@
         <v>48</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>25</v>
@@ -18764,7 +18764,7 @@
         <v>48</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J404" s="1" t="s">
         <v>48</v>
@@ -18778,10 +18778,10 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -18793,7 +18793,7 @@
         <v>48</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="G405" s="1" t="s">
         <v>48</v>
@@ -18802,7 +18802,7 @@
         <v>48</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J405" s="1" t="s">
         <v>48</v>
@@ -18816,10 +18816,10 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C406">
         <v>0</v>
@@ -18831,7 +18831,7 @@
         <v>48</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G406" s="1" t="s">
         <v>48</v>
@@ -18840,7 +18840,7 @@
         <v>48</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J406" s="1" t="s">
         <v>48</v>
@@ -18854,10 +18854,10 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C407">
         <v>0</v>
@@ -18869,7 +18869,7 @@
         <v>48</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G407" s="1" t="s">
         <v>48</v>
@@ -18878,7 +18878,7 @@
         <v>48</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J407" s="1" t="s">
         <v>48</v>
@@ -18892,10 +18892,10 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C408">
         <v>0</v>
@@ -18907,7 +18907,7 @@
         <v>48</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G408" s="1" t="s">
         <v>48</v>
@@ -18916,7 +18916,7 @@
         <v>48</v>
       </c>
       <c r="I408" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J408" s="1" t="s">
         <v>48</v>
@@ -18930,10 +18930,10 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>48</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G409" s="1" t="s">
         <v>48</v>
@@ -18954,7 +18954,7 @@
         <v>48</v>
       </c>
       <c r="I409" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J409" s="1" t="s">
         <v>48</v>
@@ -18968,10 +18968,10 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C410">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>48</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G410" s="1" t="s">
         <v>48</v>
@@ -18992,7 +18992,7 @@
         <v>48</v>
       </c>
       <c r="I410" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J410" s="1" t="s">
         <v>48</v>
@@ -19006,10 +19006,10 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C411">
         <v>0</v>
@@ -19021,7 +19021,7 @@
         <v>48</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G411" s="1" t="s">
         <v>48</v>
@@ -19030,7 +19030,7 @@
         <v>48</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J411" s="1" t="s">
         <v>512</v>
@@ -19073,7 +19073,7 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>14</v>
@@ -19082,13 +19082,13 @@
         <v>0</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G413" s="1" t="s">
         <v>48</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>56</v>
@@ -19120,13 +19120,13 @@
         <v>0</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G414" s="1" t="s">
         <v>48</v>
@@ -19178,7 +19178,7 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>48</v>
@@ -19236,7 +19236,7 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>14</v>
@@ -19245,16 +19245,16 @@
         <v>0</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E418" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F418" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="F418" s="1" t="s">
+      <c r="G418" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="G418" s="1" t="s">
-        <v>1062</v>
       </c>
       <c r="H418" s="1" t="s">
         <v>4</v>
@@ -19303,22 +19303,22 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B420" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="C420">
         <v>3</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G420" s="1" t="s">
         <v>48</v>
@@ -19341,22 +19341,22 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C421">
         <v>3</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="G421" s="1" t="s">
         <v>48</v>
@@ -19379,22 +19379,22 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C422">
         <v>3</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G422" s="1" t="s">
         <v>48</v>
@@ -19417,22 +19417,22 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C423">
         <v>4</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G423" s="1" t="s">
         <v>48</v>
@@ -19455,22 +19455,22 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C424">
         <v>4</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G424" s="1" t="s">
         <v>48</v>
@@ -19493,22 +19493,22 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C425">
         <v>4</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G425" s="1" t="s">
         <v>48</v>
@@ -19531,22 +19531,22 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C426">
         <v>5</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G426" s="1" t="s">
         <v>48</v>
@@ -19569,22 +19569,22 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C427">
         <v>5</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G427" s="1" t="s">
         <v>48</v>
@@ -19607,22 +19607,22 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C428">
         <v>5</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="G428" s="1" t="s">
         <v>48</v>
@@ -19674,7 +19674,7 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>14</v>
@@ -19683,13 +19683,13 @@
         <v>0</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E430" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F430" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="F430" s="1" t="s">
-        <v>1084</v>
       </c>
       <c r="G430" s="1" t="s">
         <v>48</v>
@@ -19698,7 +19698,7 @@
         <v>4</v>
       </c>
       <c r="I430" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J430" s="1" t="s">
         <v>48</v>
@@ -19741,7 +19741,7 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>14</v>
@@ -19750,13 +19750,13 @@
         <v>3</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E432" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F432" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="F432" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="G432" s="1" t="s">
         <v>48</v>
@@ -19765,10 +19765,10 @@
         <v>4</v>
       </c>
       <c r="I432" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J432" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K432">
         <v>2</v>

--- a/Player Cards.xlsx
+++ b/Player Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Lexive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759C01F-156E-4DE7-A69D-3223A21C5427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA04E17E-C2AF-4A68-9097-E0A784B6FD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9B7A286-D4BB-4D76-82A4-94EB548F212D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4070" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="1171">
   <si>
     <t># Name</t>
   </si>
@@ -3371,9 +3371,6 @@
     <t>A=1/L=1,$=A</t>
   </si>
   <si>
-    <t>A=1/P,$=A</t>
-  </si>
-  <si>
     <t>D=1/F,$=A,&amp;=C</t>
   </si>
   <si>
@@ -3386,15 +3383,6 @@
     <t>D=5,X,&amp;=H,$=C,G=4,&amp;=I,$=C</t>
   </si>
   <si>
-    <t>D=1/P,$=C,&amp;=W,&amp;=C</t>
-  </si>
-  <si>
-    <t>D=1/P,&amp;=4,&amp;=L,$=C,&amp;=W,&amp;=C</t>
-  </si>
-  <si>
-    <t>A=1,H,&amp;=H,$=C,&amp;=4,&amp;=L</t>
-  </si>
-  <si>
     <t>A=2,N=2,&amp;A=+2</t>
   </si>
   <si>
@@ -3437,51 +3425,18 @@
     <t>D=2;E</t>
   </si>
   <si>
-    <t>D=1,A=1,&amp;=T,%=C;E</t>
-  </si>
-  <si>
     <t>D=1,F,$=B;E</t>
   </si>
   <si>
     <t>D=1/J=1,$=B,&amp;=C</t>
   </si>
   <si>
-    <t>A=3,I=1,&amp;=H,$=C,$=J,$=E,J=1,$=B,&amp;=I,$=C</t>
-  </si>
-  <si>
-    <t>D=2,K=1,&amp;=H,$=C,$=J,$=E</t>
-  </si>
-  <si>
-    <t>D=4/D=2,K=1,&amp;=H,$=B,$=J,$=E</t>
-  </si>
-  <si>
-    <t>A=2/K=1,$=C,$=J,$=E</t>
-  </si>
-  <si>
-    <t>A=2/I=1,$=C,$=J,$=E,C=2,&amp;=I,$=C</t>
-  </si>
-  <si>
-    <t>D=3,P,$=A,&amp;=H,$=C</t>
-  </si>
-  <si>
     <t>D=3,D=+3,&amp;=+4,$=C</t>
   </si>
   <si>
-    <t>A=2,A=+1,&amp;=T,%=S</t>
-  </si>
-  <si>
     <t>A=1,X,&amp;=H,$=C,A=+2,&amp;=I,$=C</t>
   </si>
   <si>
-    <t>D=4,K=1,&amp;=H,$=C,$=J,$=F;D</t>
-  </si>
-  <si>
-    <t>I=1,$==A,$=J,$=E,&amp;=C,D=4,&amp;=I,$=A</t>
-  </si>
-  <si>
-    <t>D=3,I=1,&amp;=H,$=C,$=J,$=E,Z=0,$=A,&amp;=I,$=C</t>
-  </si>
-  <si>
     <t>A=3/A=2,&amp;&amp;D=1</t>
   </si>
   <si>
@@ -3491,9 +3446,6 @@
     <t>D=3;P;&amp;=C;?=D:1</t>
   </si>
   <si>
-    <t>X,K=0-2,$=C,$=J,$=G,J=1,$=C</t>
-  </si>
-  <si>
     <t>F,$=A/X,G=3</t>
   </si>
   <si>
@@ -3503,9 +3455,6 @@
     <t>A=2/X,A=3</t>
   </si>
   <si>
-    <t>K=1,$=C,$=K,$=I/X,L=2,$=C</t>
-  </si>
-  <si>
     <t>D=2,N=2,&amp;D=+2;L</t>
   </si>
   <si>
@@ -3515,9 +3464,6 @@
     <t>C=1,$=C,C=1,$=B</t>
   </si>
   <si>
-    <t>C=1,$=C,K=1,&amp;=H,$=C,$=J,$=H</t>
-  </si>
-  <si>
     <t>C=1,$=C/C=-2,&amp;=H,$=C,A=5,&amp;=I,$=C</t>
   </si>
   <si>
@@ -3549,6 +3495,60 @@
   </si>
   <si>
     <t>Reverberating Shock</t>
+  </si>
+  <si>
+    <t>D=1/B,$=C,&amp;=W,&amp;=C</t>
+  </si>
+  <si>
+    <t>A=1/B,$=A</t>
+  </si>
+  <si>
+    <t>D=3,B,$=A,&amp;=H,$=C</t>
+  </si>
+  <si>
+    <t>D=1/B,&amp;=4-,$=C,&amp;=W,&amp;=C</t>
+  </si>
+  <si>
+    <t>A=1,H,&amp;=H,$=C,&amp;=4-</t>
+  </si>
+  <si>
+    <t>A=2,A=+1,%=S</t>
+  </si>
+  <si>
+    <t>D=1,A=1,%=C;E</t>
+  </si>
+  <si>
+    <t>A=3,I=1,&amp;=H,$=C,$=E,J=1,$=B,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>X,K=0-2,$=C,$=G,J=1,$=C</t>
+  </si>
+  <si>
+    <t>D=2,K=1,&amp;=H,$=C,$=E</t>
+  </si>
+  <si>
+    <t>C=1,$=C,K=1,&amp;=H,$=C,$=H</t>
+  </si>
+  <si>
+    <t>D=4/D=2,K=1,&amp;=H,$=B,$=E</t>
+  </si>
+  <si>
+    <t>D=3,I=1,&amp;=H,$=C,$=E,Z=0,$=A,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>D=4,K=1,&amp;=H,$=C,$=F;D</t>
+  </si>
+  <si>
+    <t>A=2/K=1,$=C,$=E</t>
+  </si>
+  <si>
+    <t>A=2/I=1,$=C,$=E,C=2,&amp;=I,$=C</t>
+  </si>
+  <si>
+    <t>K=1,$=C,$=I/X,L=2,$=C</t>
+  </si>
+  <si>
+    <t>I=1,$=A,$=E,&amp;=C,D=4,&amp;=I,$=A</t>
   </si>
 </sst>
 </file>
@@ -3979,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FD30BF-D2F4-4233-AF09-6D096A2CEE65}">
   <dimension ref="A1:L432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1136</v>
+        <v>1160</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -4182,7 +4182,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>48</v>
@@ -4220,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>48</v>
@@ -4296,7 +4296,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1143</v>
+        <v>1158</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -4448,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>48</v>
@@ -4522,7 +4522,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1152</v>
+        <v>1136</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>48</v>
@@ -4560,7 +4560,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1158</v>
+        <v>1141</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
@@ -4636,7 +4636,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>48</v>
@@ -4862,7 +4862,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>76</v>
@@ -4900,7 +4900,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1168</v>
+        <v>1150</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -4938,7 +4938,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>83</v>
@@ -5090,7 +5090,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1137</v>
+        <v>1162</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>48</v>
@@ -5233,7 +5233,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>48</v>
@@ -5347,7 +5347,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>48</v>
@@ -5718,7 +5718,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>143</v>
@@ -5756,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1141</v>
+        <v>1155</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>48</v>
@@ -5919,7 +5919,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>48</v>
@@ -5957,7 +5957,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>48</v>
@@ -6069,7 +6069,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>48</v>
@@ -6297,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>48</v>
@@ -6449,7 +6449,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>48</v>
@@ -6525,7 +6525,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1138</v>
+        <v>1164</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -6677,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1147</v>
+        <v>1165</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>48</v>
@@ -6791,7 +6791,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1145</v>
+        <v>1166</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>143</v>
@@ -6932,7 +6932,7 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1139</v>
+        <v>1167</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>48</v>
@@ -7084,7 +7084,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>246</v>
@@ -7160,7 +7160,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>246</v>
@@ -7198,7 +7198,7 @@
         <v>4</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1157</v>
+        <v>1140</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>246</v>
@@ -7303,7 +7303,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1140</v>
+        <v>1168</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>48</v>
@@ -7341,7 +7341,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>48</v>
@@ -7417,7 +7417,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>48</v>
@@ -7493,7 +7493,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>48</v>
@@ -7531,7 +7531,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>48</v>
@@ -7922,7 +7922,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>48</v>
@@ -8004,7 +8004,7 @@
         <v>48</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>310</v>
@@ -8074,7 +8074,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1146</v>
+        <v>1170</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>48</v>
@@ -8217,7 +8217,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>48</v>
@@ -8436,7 +8436,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1161</v>
+        <v>1143</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>48</v>
@@ -8722,7 +8722,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>48</v>
@@ -8760,7 +8760,7 @@
         <v>6</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1162</v>
+        <v>1144</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>48</v>
@@ -9712,7 +9712,7 @@
         <v>7</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1163</v>
+        <v>1145</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>48</v>
@@ -10331,7 +10331,7 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>48</v>
@@ -10738,7 +10738,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1155</v>
+        <v>1169</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>48</v>
@@ -10776,7 +10776,7 @@
         <v>7</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>48</v>
@@ -10957,7 +10957,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>530</v>
@@ -11091,7 +11091,7 @@
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>56</v>
@@ -11100,7 +11100,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1133</v>
+        <v>1159</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>530</v>
@@ -11757,7 +11757,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>530</v>
@@ -12843,7 +12843,7 @@
         <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1156</v>
+        <v>1139</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>246</v>
@@ -13129,7 +13129,7 @@
         <v>2</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>48</v>
@@ -13167,7 +13167,7 @@
         <v>2</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1165</v>
+        <v>1147</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>48</v>
@@ -15801,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>1116</v>
+        <v>1153</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>48</v>
@@ -16467,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>48</v>
@@ -16505,7 +16505,7 @@
         <v>0</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>48</v>
@@ -16923,7 +16923,7 @@
         <v>0</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1164</v>
+        <v>1146</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>48</v>
@@ -17799,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>1117</v>
+        <v>1156</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>48</v>
@@ -17989,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1111</v>
+        <v>1154</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>48</v>
@@ -18217,7 +18217,7 @@
         <v>0</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>48</v>
@@ -18407,7 +18407,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>1118</v>
+        <v>1157</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>48</v>
@@ -18521,7 +18521,7 @@
         <v>0</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>1167</v>
+        <v>1149</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>48</v>
